--- a/data/EV Calculation.xlsx
+++ b/data/EV Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1282" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE20369-7EE8-43F3-A5D5-C0767D79877B}"/>
+  <xr:revisionPtr revIDLastSave="1448" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A1B3A3-9734-4857-B82D-F05CD165754C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Datetime</t>
   </si>
@@ -55,10 +55,7 @@
     <t>Load_EV_kW_SC</t>
   </si>
   <si>
-    <t>Target_EV_kW_with_SC</t>
-  </si>
-  <si>
-    <t>Capacity_EV_kW_with_SC</t>
+    <t>Charging_type_EV_B2C</t>
   </si>
   <si>
     <t>Week</t>
@@ -68,6 +65,15 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>charging</t>
+  </si>
+  <si>
+    <t>uncharging</t>
+  </si>
+  <si>
+    <t>disconnected</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -133,13 +139,19 @@
     <t>Daily weekend (km)</t>
   </si>
   <si>
-    <t>Charging time needed?</t>
-  </si>
-  <si>
     <t>Charging time</t>
   </si>
   <si>
-    <t>Load</t>
+    <t>Average charging load</t>
+  </si>
+  <si>
+    <t>Average charge</t>
+  </si>
+  <si>
+    <t>Ratio to max power</t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -553,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03086007-FF13-4F03-A8AB-B476DD27065A}">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -566,12 +578,11 @@
     <col min="3" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,17 +601,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11">
         <v>43101</v>
       </c>
@@ -608,24 +616,27 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="11">
         <v>43101.041666666664</v>
       </c>
@@ -640,15 +651,17 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="10">
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="11">
         <v>43101.083333333336</v>
       </c>
@@ -663,15 +676,17 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="H4" s="10">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="11">
         <v>43101.124999826388</v>
       </c>
@@ -687,14 +702,14 @@
         <v>0</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="H5" s="10">
+      <c r="G5" s="10">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>43101.166666435187</v>
       </c>
@@ -710,14 +725,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="H6" s="10">
+      <c r="G6" s="10">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>43101.208333043978</v>
       </c>
@@ -733,14 +748,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="H7" s="10">
+      <c r="G7" s="10">
         <v>6</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="11">
         <v>43101.249999652777</v>
       </c>
@@ -756,14 +771,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="H8" s="10">
+      <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="11">
         <v>43101.291666261575</v>
       </c>
@@ -779,14 +794,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
         <v>8</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="11">
         <v>43101.333332870374</v>
       </c>
@@ -802,14 +817,14 @@
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="H10" s="10">
+      <c r="G10" s="10">
         <v>9</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="11">
         <v>43101.374999479165</v>
       </c>
@@ -825,14 +840,14 @@
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="H11" s="10">
+      <c r="G11" s="10">
         <v>10</v>
       </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>43101.416666087964</v>
       </c>
@@ -848,14 +863,14 @@
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="H12" s="10">
+      <c r="G12" s="10">
         <v>11</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>43101.458332696762</v>
       </c>
@@ -871,14 +886,14 @@
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="H13" s="10">
+      <c r="G13" s="10">
         <v>12</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>43101.499999305554</v>
       </c>
@@ -894,14 +909,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="H14" s="10">
+      <c r="G14" s="10">
         <v>13</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>43101.541665914352</v>
       </c>
@@ -917,14 +932,14 @@
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="H15" s="10">
+      <c r="G15" s="10">
         <v>14</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>43101.583332523151</v>
       </c>
@@ -940,14 +955,14 @@
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="H16" s="10">
+      <c r="G16" s="10">
         <v>15</v>
       </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="11">
         <v>43101.624999131942</v>
       </c>
@@ -963,14 +978,14 @@
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="H17" s="10">
+      <c r="G17" s="10">
         <v>16</v>
       </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="11">
         <v>43101.66666574074</v>
       </c>
@@ -986,14 +1001,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="H18" s="10">
+      <c r="G18" s="10">
         <v>17</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="11">
         <v>43101.708332349539</v>
       </c>
@@ -1009,14 +1024,14 @@
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="H19" s="10">
+      <c r="G19" s="10">
         <v>18</v>
       </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="11">
         <v>43101.74999895833</v>
       </c>
@@ -1032,14 +1047,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="H20" s="10">
+      <c r="G20" s="10">
         <v>19</v>
       </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="11">
         <v>43101.791665567129</v>
       </c>
@@ -1055,14 +1070,14 @@
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="H21" s="10">
+      <c r="G21" s="10">
         <v>20</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="11">
         <v>43101.833332175927</v>
       </c>
@@ -1078,14 +1093,14 @@
         <v>0</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="H22" s="10">
+      <c r="G22" s="10">
         <v>21</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="11">
         <v>43101.874998784719</v>
       </c>
@@ -1101,14 +1116,14 @@
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="H23" s="10">
+      <c r="G23" s="10">
         <v>22</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="11">
         <v>43101.916665393517</v>
       </c>
@@ -1124,14 +1139,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="H24" s="10">
+      <c r="G24" s="10">
         <v>23</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="11">
         <v>43101.958332002316</v>
       </c>
@@ -1143,18 +1158,18 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="H25" s="10">
+      <c r="G25" s="10">
         <v>24</v>
       </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="11">
         <v>43101.999998611114</v>
       </c>
@@ -1162,25 +1177,25 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="H26" s="10">
+      <c r="G26" s="10">
         <v>25</v>
       </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="11">
         <v>43102.041665219906</v>
       </c>
@@ -1192,18 +1207,18 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="H27" s="10">
+      <c r="G27" s="10">
         <v>26</v>
       </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="11">
         <v>43102.083331828704</v>
       </c>
@@ -1215,18 +1230,18 @@
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="H28" s="10">
+      <c r="G28" s="10">
         <v>27</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="11">
         <v>43102.124998437503</v>
       </c>
@@ -1238,18 +1253,18 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="H29" s="10">
+      <c r="G29" s="10">
         <v>28</v>
       </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="11">
         <v>43102.166665046294</v>
       </c>
@@ -1261,18 +1276,18 @@
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="H30" s="10">
+      <c r="G30" s="10">
         <v>29</v>
       </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="11">
         <v>43102.208331655092</v>
       </c>
@@ -1284,18 +1299,18 @@
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="H31" s="10">
+      <c r="G31" s="10">
         <v>30</v>
       </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="11">
         <v>43102.249998263891</v>
       </c>
@@ -1307,18 +1322,18 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <f>'Smart charging'!J3</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I3</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="H32" s="10">
+      <c r="G32" s="10">
         <v>31</v>
       </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="11">
         <v>43102.291664872682</v>
       </c>
@@ -1333,14 +1348,14 @@
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="H33" s="10">
+      <c r="G33" s="10">
         <v>32</v>
       </c>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="11">
         <v>43102.333331481481</v>
       </c>
@@ -1355,14 +1370,14 @@
         <v>0</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="H34" s="10">
+      <c r="G34" s="10">
         <v>33</v>
       </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="11">
         <v>43102.374998090279</v>
       </c>
@@ -1377,14 +1392,14 @@
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="H35" s="10">
+      <c r="G35" s="10">
         <v>34</v>
       </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="11">
         <v>43102.416664699071</v>
       </c>
@@ -1399,14 +1414,14 @@
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="10">
+      <c r="G36" s="10">
         <v>35</v>
       </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="11">
         <v>43102.458331307869</v>
       </c>
@@ -1421,14 +1436,14 @@
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="H37" s="10">
+      <c r="G37" s="10">
         <v>36</v>
       </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="11">
         <v>43102.499997916668</v>
       </c>
@@ -1443,14 +1458,14 @@
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="H38" s="10">
+      <c r="G38" s="10">
         <v>37</v>
       </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="11">
         <v>43102.541664525466</v>
       </c>
@@ -1465,14 +1480,14 @@
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="H39" s="10">
+      <c r="G39" s="10">
         <v>38</v>
       </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="11">
         <v>43102.583331134258</v>
       </c>
@@ -1487,14 +1502,14 @@
         <v>0</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="H40" s="10">
+      <c r="G40" s="10">
         <v>39</v>
       </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="11">
         <v>43102.624997743056</v>
       </c>
@@ -1509,14 +1524,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="H41" s="10">
+      <c r="G41" s="10">
         <v>40</v>
       </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="11">
         <v>43102.666664351855</v>
       </c>
@@ -1531,14 +1546,14 @@
         <v>0</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="H42" s="10">
+      <c r="G42" s="10">
         <v>41</v>
       </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="11">
         <v>43102.708330960646</v>
       </c>
@@ -1553,14 +1568,14 @@
         <v>0</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="H43" s="10">
+      <c r="G43" s="10">
         <v>42</v>
       </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="11">
         <v>43102.749997569445</v>
       </c>
@@ -1575,14 +1590,14 @@
         <v>0</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="H44" s="10">
+      <c r="G44" s="10">
         <v>43</v>
       </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="11">
         <v>43102.791664178243</v>
       </c>
@@ -1597,14 +1612,14 @@
         <v>0</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="H45" s="10">
+      <c r="G45" s="10">
         <v>44</v>
       </c>
-      <c r="I45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="11">
         <v>43102.833330787034</v>
       </c>
@@ -1619,14 +1634,14 @@
         <v>0</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="H46" s="10">
+      <c r="G46" s="10">
         <v>45</v>
       </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="11">
         <v>43102.874997395833</v>
       </c>
@@ -1641,14 +1656,14 @@
         <v>0</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="H47" s="10">
+      <c r="G47" s="10">
         <v>46</v>
       </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="11">
         <v>43102.916664004631</v>
       </c>
@@ -1663,14 +1678,14 @@
         <v>0</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="H48" s="10">
+      <c r="G48" s="10">
         <v>47</v>
       </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="11">
         <v>43102.958330613423</v>
       </c>
@@ -1685,14 +1700,14 @@
         <v>0</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="H49" s="10">
+      <c r="G49" s="10">
         <v>48</v>
       </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="11">
         <v>43102.999997222221</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>1.99999999999998</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3">
         <f>0</f>
@@ -1710,14 +1725,14 @@
         <v>0</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="H50" s="10">
+      <c r="G50" s="10">
         <v>49</v>
       </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="11">
         <v>43103.04166383102</v>
       </c>
@@ -1732,14 +1747,14 @@
         <v>0</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="H51" s="10">
+      <c r="G51" s="10">
         <v>50</v>
       </c>
-      <c r="I51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="11">
         <v>43103.083330439818</v>
       </c>
@@ -1754,14 +1769,14 @@
         <v>0</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="H52" s="10">
+      <c r="G52" s="10">
         <v>51</v>
       </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="11">
         <v>43103.12499704861</v>
       </c>
@@ -1776,14 +1791,14 @@
         <v>0</v>
       </c>
       <c r="F53" s="3"/>
-      <c r="H53" s="10">
+      <c r="G53" s="10">
         <v>52</v>
       </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="11">
         <v>43103.166663657408</v>
       </c>
@@ -1798,11 +1813,11 @@
         <v>0</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="11">
         <v>43103.208330266207</v>
       </c>
@@ -1817,11 +1832,11 @@
         <v>0</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="I55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="11">
         <v>43103.249996874998</v>
       </c>
@@ -1836,11 +1851,11 @@
         <v>0</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="I56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="11">
         <v>43103.291663483797</v>
       </c>
@@ -1855,11 +1870,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="I57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="11">
         <v>43103.333330092595</v>
       </c>
@@ -1874,11 +1889,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="3"/>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="11">
         <v>43103.374996701386</v>
       </c>
@@ -1893,11 +1908,11 @@
         <v>0</v>
       </c>
       <c r="F59" s="3"/>
-      <c r="I59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="11">
         <v>43103.416663310185</v>
       </c>
@@ -1912,11 +1927,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="3"/>
-      <c r="I60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="11">
         <v>43103.458329918984</v>
       </c>
@@ -1931,11 +1946,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="I61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="11">
         <v>43103.499996527775</v>
       </c>
@@ -1950,11 +1965,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="11">
         <v>43103.541663136573</v>
       </c>
@@ -1969,11 +1984,11 @@
         <v>0</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="I63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="11">
         <v>43103.583329745372</v>
       </c>
@@ -1988,11 +2003,11 @@
         <v>0</v>
       </c>
       <c r="F64" s="3"/>
-      <c r="I64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="11">
         <v>43103.624996354163</v>
       </c>
@@ -2007,11 +2022,11 @@
         <v>0</v>
       </c>
       <c r="F65" s="3"/>
-      <c r="I65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="11">
         <v>43103.666662962962</v>
       </c>
@@ -2026,11 +2041,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="I66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="11">
         <v>43103.70832957176</v>
       </c>
@@ -2045,11 +2060,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="3"/>
-      <c r="I67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="11">
         <v>43103.749996180559</v>
       </c>
@@ -2064,11 +2079,11 @@
         <v>0</v>
       </c>
       <c r="F68" s="3"/>
-      <c r="I68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="11">
         <v>43103.79166278935</v>
       </c>
@@ -2083,11 +2098,11 @@
         <v>0</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="I69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="11">
         <v>43103.833329398149</v>
       </c>
@@ -2102,11 +2117,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3"/>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="11">
         <v>43103.874996006947</v>
       </c>
@@ -2121,11 +2136,11 @@
         <v>0</v>
       </c>
       <c r="F71" s="3"/>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="11">
         <v>43103.916662615738</v>
       </c>
@@ -2140,11 +2155,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="3"/>
-      <c r="I72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="11">
         <v>43103.958329224537</v>
       </c>
@@ -2156,15 +2171,15 @@
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F73" s="3"/>
-      <c r="I73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="11">
         <v>43103.999995833336</v>
       </c>
@@ -2172,22 +2187,22 @@
         <v>2.99999999999996</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="E74" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F74" s="3"/>
-      <c r="I74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="11">
         <v>43104.041662442127</v>
       </c>
@@ -2199,15 +2214,15 @@
         <v>0</v>
       </c>
       <c r="E75" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F75" s="3"/>
-      <c r="I75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="11">
         <v>43104.083329050925</v>
       </c>
@@ -2219,15 +2234,15 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="I76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="11">
         <v>43104.124995659724</v>
       </c>
@@ -2239,15 +2254,15 @@
         <v>0</v>
       </c>
       <c r="E77" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="I77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="11">
         <v>43104.166662268515</v>
       </c>
@@ -2259,15 +2274,15 @@
         <v>0</v>
       </c>
       <c r="E78" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="I78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="11">
         <v>43104.208328877314</v>
       </c>
@@ -2279,15 +2294,15 @@
         <v>0</v>
       </c>
       <c r="E79" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="I79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="11">
         <v>43104.249995486112</v>
       </c>
@@ -2299,15 +2314,15 @@
         <v>0</v>
       </c>
       <c r="E80" s="3">
-        <f>'Smart charging'!J5</f>
-        <v>3.7</v>
+        <f>'Smart charging'!I5</f>
+        <v>2.0320987654320986</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="I80" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="11">
         <v>43104.291662094911</v>
       </c>
@@ -2323,11 +2338,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="I81" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="11">
         <v>43104.333328703702</v>
       </c>
@@ -2343,11 +2358,11 @@
         <v>0</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="I82" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="11">
         <v>43104.374995312501</v>
       </c>
@@ -2363,11 +2378,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="3"/>
-      <c r="I83" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="11">
         <v>43104.416661921299</v>
       </c>
@@ -2383,11 +2398,11 @@
         <v>0</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="I84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="11">
         <v>43104.458328530091</v>
       </c>
@@ -2403,11 +2418,11 @@
         <v>0</v>
       </c>
       <c r="F85" s="3"/>
-      <c r="I85" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="11">
         <v>43104.499995138889</v>
       </c>
@@ -2423,11 +2438,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="3"/>
-      <c r="I86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="11">
         <v>43104.541661747688</v>
       </c>
@@ -2443,11 +2458,11 @@
         <v>0</v>
       </c>
       <c r="F87" s="3"/>
-      <c r="I87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="11">
         <v>43104.583328356479</v>
       </c>
@@ -2463,11 +2478,11 @@
         <v>0</v>
       </c>
       <c r="F88" s="3"/>
-      <c r="I88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="11">
         <v>43104.624994965277</v>
       </c>
@@ -2483,11 +2498,11 @@
         <v>0</v>
       </c>
       <c r="F89" s="3"/>
-      <c r="I89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="11">
         <v>43104.666661574076</v>
       </c>
@@ -2503,11 +2518,11 @@
         <v>0</v>
       </c>
       <c r="F90" s="3"/>
-      <c r="I90" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="11">
         <v>43104.708328182867</v>
       </c>
@@ -2523,11 +2538,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="I91" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="11">
         <v>43104.749994791666</v>
       </c>
@@ -2543,11 +2558,11 @@
         <v>0</v>
       </c>
       <c r="F92" s="3"/>
-      <c r="I92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="11">
         <v>43104.791661400464</v>
       </c>
@@ -2563,11 +2578,11 @@
         <v>0</v>
       </c>
       <c r="F93" s="3"/>
-      <c r="I93" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="11">
         <v>43104.833328009256</v>
       </c>
@@ -2583,11 +2598,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3"/>
-      <c r="I94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="11">
         <v>43104.874994618054</v>
       </c>
@@ -2603,11 +2618,11 @@
         <v>0</v>
       </c>
       <c r="F95" s="3"/>
-      <c r="I95" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="11">
         <v>43104.916661226853</v>
       </c>
@@ -2623,11 +2638,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3"/>
-      <c r="I96" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="11">
         <v>43104.958327835651</v>
       </c>
@@ -2643,11 +2658,11 @@
         <v>0</v>
       </c>
       <c r="F97" s="3"/>
-      <c r="I97" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="11">
         <v>43104.999994444443</v>
       </c>
@@ -2655,7 +2670,7 @@
         <v>3.9999999999999498</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D98" s="3">
         <f>0</f>
@@ -2666,11 +2681,11 @@
         <v>0</v>
       </c>
       <c r="F98" s="3"/>
-      <c r="I98" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="11">
         <v>43105.041661053241</v>
       </c>
@@ -2686,11 +2701,11 @@
         <v>0</v>
       </c>
       <c r="F99" s="3"/>
-      <c r="I99" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="11">
         <v>43105.08332766204</v>
       </c>
@@ -2706,11 +2721,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3"/>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="11">
         <v>43105.124994270831</v>
       </c>
@@ -2726,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="F101" s="3"/>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="11">
         <v>43105.166660879629</v>
       </c>
@@ -2746,11 +2761,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3"/>
-      <c r="I102" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="11">
         <v>43105.208327488428</v>
       </c>
@@ -2766,11 +2781,11 @@
         <v>0</v>
       </c>
       <c r="F103" s="3"/>
-      <c r="I103" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="11">
         <v>43105.249994097219</v>
       </c>
@@ -2786,11 +2801,11 @@
         <v>0</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="I104" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="11">
         <v>43105.291660706018</v>
       </c>
@@ -2806,11 +2821,11 @@
         <v>0</v>
       </c>
       <c r="F105" s="3"/>
-      <c r="I105" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="11">
         <v>43105.333327314816</v>
       </c>
@@ -2826,11 +2841,11 @@
         <v>0</v>
       </c>
       <c r="F106" s="3"/>
-      <c r="I106" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="11">
         <v>43105.374993923608</v>
       </c>
@@ -2846,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="F107" s="3"/>
-      <c r="I107" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="H107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="11">
         <v>43105.416660532406</v>
       </c>
@@ -2866,11 +2881,11 @@
         <v>0</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="I108" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="11">
         <v>43105.458327141205</v>
       </c>
@@ -2886,11 +2901,11 @@
         <v>0</v>
       </c>
       <c r="F109" s="3"/>
-      <c r="I109" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="11">
         <v>43105.499993750003</v>
       </c>
@@ -2906,11 +2921,11 @@
         <v>0</v>
       </c>
       <c r="F110" s="3"/>
-      <c r="I110" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="11">
         <v>43105.541660358795</v>
       </c>
@@ -2926,11 +2941,11 @@
         <v>0</v>
       </c>
       <c r="F111" s="3"/>
-      <c r="I111" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="11">
         <v>43105.583326967593</v>
       </c>
@@ -2946,11 +2961,11 @@
         <v>0</v>
       </c>
       <c r="F112" s="3"/>
-      <c r="I112" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="11">
         <v>43105.624993576392</v>
       </c>
@@ -2966,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="F113" s="3"/>
-      <c r="I113" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="11">
         <v>43105.666660185183</v>
       </c>
@@ -2986,11 +3001,11 @@
         <v>0</v>
       </c>
       <c r="F114" s="3"/>
-      <c r="I114" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="11">
         <v>43105.708326793982</v>
       </c>
@@ -3006,11 +3021,11 @@
         <v>0</v>
       </c>
       <c r="F115" s="3"/>
-      <c r="I115" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="11">
         <v>43105.74999340278</v>
       </c>
@@ -3026,11 +3041,11 @@
         <v>0</v>
       </c>
       <c r="F116" s="3"/>
-      <c r="I116" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="11">
         <v>43105.791660011571</v>
       </c>
@@ -3046,11 +3061,11 @@
         <v>0</v>
       </c>
       <c r="F117" s="3"/>
-      <c r="I117" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="11">
         <v>43105.83332662037</v>
       </c>
@@ -3066,11 +3081,11 @@
         <v>0</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="I118" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="11">
         <v>43105.874993229168</v>
       </c>
@@ -3086,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="F119" s="3"/>
-      <c r="I119" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="11">
         <v>43105.91665983796</v>
       </c>
@@ -3106,11 +3121,11 @@
         <v>0</v>
       </c>
       <c r="F120" s="3"/>
-      <c r="I120" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="11">
         <v>43105.958326446758</v>
       </c>
@@ -3126,11 +3141,11 @@
         <v>0</v>
       </c>
       <c r="F121" s="3"/>
-      <c r="I121" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="11">
         <v>43105.999993055557</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>4.9999999999999298</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D122" s="3">
         <f>0</f>
@@ -3149,11 +3164,11 @@
         <v>0</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="I122" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="11">
         <v>43106.041659664355</v>
       </c>
@@ -3169,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="F123" s="3"/>
-      <c r="I123" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="11">
         <v>43106.083326273147</v>
       </c>
@@ -3189,11 +3204,11 @@
         <v>0</v>
       </c>
       <c r="F124" s="3"/>
-      <c r="I124" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="11">
         <v>43106.124992881945</v>
       </c>
@@ -3209,11 +3224,11 @@
         <v>0</v>
       </c>
       <c r="F125" s="3"/>
-      <c r="I125" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="H125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="11">
         <v>43106.166659490744</v>
       </c>
@@ -3229,11 +3244,11 @@
         <v>0</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="I126" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="11">
         <v>43106.208326099535</v>
       </c>
@@ -3249,11 +3264,11 @@
         <v>0</v>
       </c>
       <c r="F127" s="3"/>
-      <c r="I127" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="11">
         <v>43106.249992708334</v>
       </c>
@@ -3269,11 +3284,11 @@
         <v>0</v>
       </c>
       <c r="F128" s="3"/>
-      <c r="I128" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="H128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="11">
         <v>43106.291659317132</v>
       </c>
@@ -3289,11 +3304,11 @@
         <v>0</v>
       </c>
       <c r="F129" s="3"/>
-      <c r="I129" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="11">
         <v>43106.333325925923</v>
       </c>
@@ -3309,11 +3324,11 @@
         <v>0</v>
       </c>
       <c r="F130" s="3"/>
-      <c r="I130" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="11">
         <v>43106.374992534722</v>
       </c>
@@ -3329,11 +3344,11 @@
         <v>0</v>
       </c>
       <c r="F131" s="3"/>
-      <c r="I131" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="11">
         <v>43106.416659143521</v>
       </c>
@@ -3345,15 +3360,15 @@
         <v>0</v>
       </c>
       <c r="E132" s="3">
-        <f>'Smart charging'!J8</f>
-        <v>0</v>
+        <f>'Smart charging'!I8</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F132" s="3"/>
-      <c r="I132" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="11">
         <v>43106.458325752312</v>
       </c>
@@ -3365,15 +3380,15 @@
         <v>0</v>
       </c>
       <c r="E133" s="3">
-        <f>'Smart charging'!J8</f>
-        <v>0</v>
+        <f>'Smart charging'!I8</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F133" s="3"/>
-      <c r="I133" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="11">
         <v>43106.49999236111</v>
       </c>
@@ -3385,15 +3400,15 @@
         <v>0</v>
       </c>
       <c r="E134" s="3">
-        <f>'Smart charging'!J8</f>
-        <v>0</v>
+        <f>'Smart charging'!I8</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F134" s="3"/>
-      <c r="I134" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="H134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="11">
         <v>43106.541658969909</v>
       </c>
@@ -3405,15 +3420,15 @@
         <v>0</v>
       </c>
       <c r="E135" s="3">
-        <f>'Smart charging'!J8</f>
-        <v>0</v>
+        <f>'Smart charging'!I8</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F135" s="3"/>
-      <c r="I135" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="H135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="11">
         <v>43106.5833255787</v>
       </c>
@@ -3425,15 +3440,15 @@
         <v>0</v>
       </c>
       <c r="E136" s="3">
-        <f>'Smart charging'!J8</f>
-        <v>0</v>
+        <f>'Smart charging'!I8</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F136" s="3"/>
-      <c r="I136" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="11">
         <v>43106.624992187499</v>
       </c>
@@ -3449,11 +3464,11 @@
         <v>0</v>
       </c>
       <c r="F137" s="3"/>
-      <c r="I137" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="H137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="11">
         <v>43106.666658796297</v>
       </c>
@@ -3469,11 +3484,11 @@
         <v>0</v>
       </c>
       <c r="F138" s="3"/>
-      <c r="I138" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="H138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="11">
         <v>43106.708325405096</v>
       </c>
@@ -3489,11 +3504,11 @@
         <v>0</v>
       </c>
       <c r="F139" s="3"/>
-      <c r="I139" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="H139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="11">
         <v>43106.749992013887</v>
       </c>
@@ -3509,11 +3524,11 @@
         <v>0</v>
       </c>
       <c r="F140" s="3"/>
-      <c r="I140" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="11">
         <v>43106.791658622686</v>
       </c>
@@ -3529,11 +3544,11 @@
         <v>0</v>
       </c>
       <c r="F141" s="3"/>
-      <c r="I141" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="H141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="11">
         <v>43106.833325231484</v>
       </c>
@@ -3549,11 +3564,11 @@
         <v>0</v>
       </c>
       <c r="F142" s="3"/>
-      <c r="I142" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="11">
         <v>43106.874991840275</v>
       </c>
@@ -3569,11 +3584,11 @@
         <v>0</v>
       </c>
       <c r="F143" s="3"/>
-      <c r="I143" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="H143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="11">
         <v>43106.916658449074</v>
       </c>
@@ -3589,11 +3604,11 @@
         <v>0</v>
       </c>
       <c r="F144" s="3"/>
-      <c r="I144" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="11">
         <v>43106.958325057873</v>
       </c>
@@ -3609,11 +3624,11 @@
         <v>0</v>
       </c>
       <c r="F145" s="3"/>
-      <c r="I145" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="H145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="11">
         <v>43106.999991666664</v>
       </c>
@@ -3621,7 +3636,7 @@
         <v>5.9999999999999103</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D146" s="3">
         <f>0</f>
@@ -3632,11 +3647,11 @@
         <v>0</v>
       </c>
       <c r="F146" s="3"/>
-      <c r="I146" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="H146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="11">
         <v>43107.041658275462</v>
       </c>
@@ -3652,11 +3667,11 @@
         <v>0</v>
       </c>
       <c r="F147" s="3"/>
-      <c r="I147" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="H147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="11">
         <v>43107.083324884261</v>
       </c>
@@ -3672,11 +3687,11 @@
         <v>0</v>
       </c>
       <c r="F148" s="3"/>
-      <c r="I148" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="H148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="11">
         <v>43107.124991493052</v>
       </c>
@@ -3692,11 +3707,11 @@
         <v>0</v>
       </c>
       <c r="F149" s="3"/>
-      <c r="I149" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="H149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="11">
         <v>43107.166658101851</v>
       </c>
@@ -3712,11 +3727,11 @@
         <v>0</v>
       </c>
       <c r="F150" s="3"/>
-      <c r="I150" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="H150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="11">
         <v>43107.208324710649</v>
       </c>
@@ -3732,11 +3747,11 @@
         <v>0</v>
       </c>
       <c r="F151" s="3"/>
-      <c r="I151" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="11">
         <v>43107.249991319448</v>
       </c>
@@ -3752,11 +3767,11 @@
         <v>0</v>
       </c>
       <c r="F152" s="3"/>
-      <c r="I152" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="H152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="11">
         <v>43107.291657928239</v>
       </c>
@@ -3772,11 +3787,11 @@
         <v>0</v>
       </c>
       <c r="F153" s="3"/>
-      <c r="I153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="H153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="11">
         <v>43107.333324537038</v>
       </c>
@@ -3792,11 +3807,11 @@
         <v>0</v>
       </c>
       <c r="F154" s="3"/>
-      <c r="I154" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="H154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="11">
         <v>43107.374991145836</v>
       </c>
@@ -3812,11 +3827,11 @@
         <v>0</v>
       </c>
       <c r="F155" s="3"/>
-      <c r="I155" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="H155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="11">
         <v>43107.416657754628</v>
       </c>
@@ -3828,15 +3843,15 @@
         <v>0</v>
       </c>
       <c r="E156" s="3">
-        <f>'Smart charging'!J9</f>
-        <v>0</v>
+        <f>'Smart charging'!I9</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F156" s="3"/>
-      <c r="I156" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="H156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="11">
         <v>43107.458324363426</v>
       </c>
@@ -3848,15 +3863,15 @@
         <v>0</v>
       </c>
       <c r="E157" s="3">
-        <f>'Smart charging'!J9</f>
-        <v>0</v>
+        <f>'Smart charging'!I9</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F157" s="3"/>
-      <c r="I157" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="11">
         <v>43107.499990972225</v>
       </c>
@@ -3868,15 +3883,15 @@
         <v>0</v>
       </c>
       <c r="E158" s="3">
-        <f>'Smart charging'!J9</f>
-        <v>0</v>
+        <f>'Smart charging'!I9</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F158" s="3"/>
-      <c r="I158" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="11">
         <v>43107.541657581016</v>
       </c>
@@ -3888,15 +3903,15 @@
         <v>0</v>
       </c>
       <c r="E159" s="3">
-        <f>'Smart charging'!J9</f>
-        <v>0</v>
+        <f>'Smart charging'!I9</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F159" s="3"/>
-      <c r="I159" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="11">
         <v>43107.583324189814</v>
       </c>
@@ -3908,15 +3923,15 @@
         <v>0</v>
       </c>
       <c r="E160" s="3">
-        <f>'Smart charging'!J9</f>
-        <v>0</v>
+        <f>'Smart charging'!I9</f>
+        <v>2.3707818930041151</v>
       </c>
       <c r="F160" s="3"/>
-      <c r="I160" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="11">
         <v>43107.624990798613</v>
       </c>
@@ -3932,11 +3947,11 @@
         <v>0</v>
       </c>
       <c r="F161" s="3"/>
-      <c r="I161" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="11">
         <v>43107.666657407404</v>
       </c>
@@ -3952,11 +3967,11 @@
         <v>0</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="I162" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="11">
         <v>43107.708324016203</v>
       </c>
@@ -3972,11 +3987,11 @@
         <v>0</v>
       </c>
       <c r="F163" s="3"/>
-      <c r="I163" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="11">
         <v>43107.749990625001</v>
       </c>
@@ -3992,11 +4007,11 @@
         <v>0</v>
       </c>
       <c r="F164" s="3"/>
-      <c r="I164" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="H164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="11">
         <v>43107.7916572338</v>
       </c>
@@ -4012,11 +4027,11 @@
         <v>0</v>
       </c>
       <c r="F165" s="3"/>
-      <c r="I165" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="11">
         <v>43107.833323842591</v>
       </c>
@@ -4032,11 +4047,11 @@
         <v>0</v>
       </c>
       <c r="F166" s="3"/>
-      <c r="I166" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="H166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="11">
         <v>43107.87499045139</v>
       </c>
@@ -4052,11 +4067,11 @@
         <v>0</v>
       </c>
       <c r="F167" s="3"/>
-      <c r="I167" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="11">
         <v>43107.916657060188</v>
       </c>
@@ -4072,11 +4087,11 @@
         <v>0</v>
       </c>
       <c r="F168" s="3"/>
-      <c r="I168" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="11">
         <v>43107.95832366898</v>
       </c>
@@ -4092,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="3"/>
-      <c r="I169" s="3">
+      <c r="H169" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4107,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4EF160-AB85-4EBC-9AE6-900C690F2B9D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4126,54 +4141,54 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <f>K2*P2</f>
@@ -4234,7 +4249,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>D2+((F2*I2)/N2)*K2</f>
@@ -4271,7 +4286,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <f>D3+((F3*I3)/N2)*K2</f>
@@ -4306,12 +4321,12 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <f>D4+((F4*I4)/N2)*K2</f>
@@ -4352,7 +4367,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8">
         <f>D5+((F5*I5)/N2)*K2</f>
@@ -4399,7 +4414,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <f>(D6)+((F6*I6)/N2)*K2</f>
@@ -4436,7 +4451,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <f>D8+((F8*I8)/N2)*K2</f>
@@ -4508,10 +4523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBC39DF-7100-4202-BE5F-35CFC9F04E32}">
-  <dimension ref="A1:R179"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4521,1912 +4536,1014 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <f>L2*Q2</f>
+        <f>K2*P2</f>
         <v>324</v>
       </c>
       <c r="C2" s="2">
-        <f>B2/L2</f>
+        <f>B2/K2</f>
         <v>0.8</v>
       </c>
       <c r="D2">
-        <f>B2-M2</f>
+        <f>B2-L2</f>
         <v>254</v>
       </c>
       <c r="E2" s="2">
-        <f>D2/L2</f>
+        <f>D2/K2</f>
         <v>0.62716049382716055</v>
       </c>
-      <c r="F2" t="str">
-        <f>IF(E2&lt;R2,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="G2">
-        <f>IF(F2="Yes",7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="str">
-        <f>IF(G2&gt;0,23/24,"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="I2" s="6" t="str">
-        <f>IF(G2=0,"N/A",7/24)</f>
-        <v>N/A</v>
-      </c>
-      <c r="J2" s="3">
-        <f>IF(F2="Yes",MIN(((Q2-E2)*O2)/G2,P2),0)</f>
-        <v>0</v>
+      <c r="F2">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="6">
+        <f>IF(F2&gt;0,23/24,"N/A")</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H2" s="6">
+        <f>IF(F2=0,"N/A",6/24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G15</f>
+        <v>2.0320987654320986</v>
+      </c>
+      <c r="K2">
+        <v>405</v>
       </c>
       <c r="L2">
-        <v>405</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>70</v>
-      </c>
-      <c r="N2">
         <f>0.17</f>
         <v>0.17</v>
       </c>
-      <c r="O2">
+      <c r="N2">
         <f>82.3</f>
         <v>82.3</v>
       </c>
-      <c r="P2">
+      <c r="O2">
         <f>3.7</f>
         <v>3.7</v>
       </c>
+      <c r="P2" s="2">
+        <v>0.8</v>
+      </c>
       <c r="Q2" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <f>D2+((F2*I2)/N2)*K2</f>
+        <v>324</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3/K2</f>
         <v>0.8</v>
       </c>
-      <c r="R2" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f>D2+((G2*J2)/O2)*L2</f>
+      <c r="D3">
+        <f>B3-L2</f>
         <v>254</v>
       </c>
-      <c r="C3" s="2">
-        <f>B3/L2</f>
+      <c r="E3" s="2">
+        <f>D3/K2</f>
         <v>0.62716049382716055</v>
       </c>
-      <c r="D3">
-        <f>B3-M2</f>
-        <v>184</v>
-      </c>
-      <c r="E3" s="2">
-        <f>D3/L2</f>
-        <v>0.454320987654321</v>
-      </c>
-      <c r="F3" t="str">
-        <f>IF(E3&lt;R2,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-      <c r="G3">
-        <f>IF(F3="Yes",7,0)</f>
+      <c r="F3">
+        <f>7</f>
         <v>7</v>
       </c>
+      <c r="G3" s="6">
+        <f>IF(F3=0,"N/A",23/24)</f>
+        <v>0.95833333333333337</v>
+      </c>
       <c r="H3" s="6">
-        <f>IF(G3=0,"N/A",23/24)</f>
+        <f>IF(F3=0,"N/A",6/24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G15</f>
+        <v>2.0320987654320986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <f>D3+((F3*I3)/N2)*K2</f>
+        <v>324</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B4/K2</f>
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="3">
+        <f>B4-L2</f>
+        <v>254</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D4/K2</f>
+        <v>0.62716049382716055</v>
+      </c>
+      <c r="F4">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4" si="0">IF(F4&gt;0,23/24,"N/A")</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="I3" s="6">
-        <f>IF(G3=0,"N/A",7/24)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="J3" s="3">
-        <f>IF(F3="Yes",MIN(((Q2-E3)*O2)/G3,P2),0)</f>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <f>D3+((G3*J3)/O2)*L2</f>
-        <v>311.45443499392468</v>
-      </c>
-      <c r="C4" s="2">
-        <f>B4/L2</f>
-        <v>0.76902329628129551</v>
-      </c>
-      <c r="D4" s="3">
-        <f>B4-M2</f>
-        <v>241.45443499392468</v>
-      </c>
-      <c r="E4" s="2">
-        <f>D4/L2</f>
-        <v>0.59618379010845601</v>
-      </c>
-      <c r="F4" t="str">
-        <f>IF(E4&lt;R2,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="G4">
-        <f>IF(F4="Yes",10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="str">
-        <f t="shared" ref="H4" si="0">IF(G4&gt;0,23/24,"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="I4" s="6" t="str">
-        <f t="shared" ref="I4:I6" si="1">IF(G4=0,"N/A",7/24)</f>
-        <v>N/A</v>
-      </c>
-      <c r="J4" s="3">
-        <f>IF(F4="Yes",MIN(((Q2-E4)*O2)/G4,P2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="H4" s="6">
+        <f>IF(F4=0,"N/A",6/24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="3">
+        <f>G15</f>
+        <v>2.0320987654320986</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
-        <f>D4+((G4*J4)/O2)*L2</f>
-        <v>241.45443499392468</v>
+        <f>D4+((F4*I4)/N2)*K2</f>
+        <v>324</v>
       </c>
       <c r="C5" s="2">
-        <f>B5/L2</f>
-        <v>0.59618379010845601</v>
+        <f>B5/K2</f>
+        <v>0.8</v>
       </c>
       <c r="D5" s="3">
-        <f>B5-M2</f>
-        <v>171.45443499392468</v>
+        <f>B5-L2</f>
+        <v>254</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/L2</f>
-        <v>0.42334428393561652</v>
-      </c>
-      <c r="F5" t="str">
-        <f>IF(E5&lt;R2,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-      <c r="G5">
+        <f>D5/K2</f>
+        <v>0.62716049382716055</v>
+      </c>
+      <c r="F5">
+        <f>7</f>
         <v>7</v>
       </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5" si="1">IF(F5=0,"N/A",23/24)</f>
+        <v>0.95833333333333337</v>
+      </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5" si="2">IF(G5=0,"N/A",23/24)</f>
+        <f>IF(F5=0,"N/A",6/24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="3">
+        <f>G15</f>
+        <v>2.0320987654320986</v>
+      </c>
+      <c r="L5">
+        <f>70</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <f>D5+((F5*I5)/N2)*K2</f>
+        <v>324</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6/K2</f>
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="3">
+        <f>B6-L2</f>
+        <v>254</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6/K2</f>
+        <v>0.62716049382716055</v>
+      </c>
+      <c r="F6">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <f>IF(F6&gt;0,23/24,"N/A")</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="I5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="J5" s="3">
-        <f>IF(F5="Yes",MIN(((Q2-E5)*O2)/G5,P2),0)</f>
-        <v>3.7</v>
-      </c>
-      <c r="M5">
-        <f>30</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <f>D5+((G5*J5)/O2)*L2</f>
-        <v>298.90886998784936</v>
-      </c>
-      <c r="C6" s="2">
-        <f>B6/L2</f>
-        <v>0.73804659256259098</v>
-      </c>
-      <c r="D6" s="3">
-        <f>B6-M2</f>
-        <v>228.90886998784936</v>
-      </c>
-      <c r="E6" s="2">
-        <f>D6/L2</f>
-        <v>0.56520708638975148</v>
-      </c>
-      <c r="F6" t="str">
-        <f>IF(E6&lt;R2,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="G6">
-        <f>IF(F6="Yes",10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="str">
-        <f t="shared" ref="H6" si="3">IF(G6&gt;0,23/24,"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="I6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="J6" s="3">
-        <f>IF(F6="Yes",MIN(((Q2-E6)*O2)/G6,P2),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="H6" s="6">
+        <f>IF(F6=0,"N/A",6/24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="3">
+        <f>G15</f>
+        <v>2.0320987654320986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
-        <f>D6</f>
-        <v>228.90886998784936</v>
+        <f>D6+((F6*I6)/N2)*K2</f>
+        <v>324</v>
       </c>
       <c r="C8" s="2">
-        <f>B8/L2</f>
-        <v>0.56520708638975148</v>
+        <f>B8/K2</f>
+        <v>0.8</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8-M5)</f>
-        <v>198.90886998784936</v>
+        <f>(B8-L5)</f>
+        <v>254</v>
       </c>
       <c r="E8" s="2">
-        <f>D8/L2</f>
-        <v>0.49113301231567741</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <f>D8/K2</f>
+        <v>0.62716049382716055</v>
+      </c>
+      <c r="F8">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="6">
+        <f>IF(F6&gt;0,12/24,"N/A")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="6">
+        <f>IF(G6&gt;0,18/24,"N/A")</f>
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="5">
+        <f>G18</f>
+        <v>2.3707818930041151</v>
+      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:18">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <f>D8</f>
-        <v>198.90886998784936</v>
+        <v>254</v>
       </c>
       <c r="C9" s="2">
-        <f>B9/L2</f>
-        <v>0.49113301231567741</v>
-      </c>
-      <c r="D9">
-        <f>(B9-M5)+(G9*J9/O2)*L2</f>
-        <v>168.90886998784936</v>
+        <f>B9/K2</f>
+        <v>0.62716049382716055</v>
+      </c>
+      <c r="D9" s="3">
+        <f>(B9-L5)+(F9*I9/N2)*K2</f>
+        <v>254</v>
       </c>
       <c r="E9" s="2">
-        <f>D9/L2</f>
-        <v>0.41705893824160334</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <f>D9/K2</f>
+        <v>0.62716049382716055</v>
+      </c>
+      <c r="F9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="6">
+        <f>IF(F6&gt;0,12/24,"N/A")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="6">
+        <f>IF(G6&gt;0,18/24,"N/A")</f>
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="5">
+        <f>G18</f>
+        <v>2.3707818930041151</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:17">
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="7">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="7">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C13">
-        <f>0</f>
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:17">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="7"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="7">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C14">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="C15">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="7">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C17">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C18">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C19">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C20">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C21">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C22">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="C23">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C24">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C25">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7">
-        <v>0.58333333333333404</v>
-      </c>
-      <c r="C26">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="C27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7">
-        <v>0.70833333333333404</v>
-      </c>
-      <c r="C29">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="7">
-        <v>0.750000000000001</v>
-      </c>
-      <c r="C30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C31">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7">
-        <v>0.83333333333333404</v>
-      </c>
-      <c r="C32">
-        <f>0</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="7"/>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="7"/>
+      <c r="G15" s="3">
+        <f>(L2/K2*N2)/F2</f>
+        <v>2.0320987654320986</v>
+      </c>
+      <c r="H15" s="2">
+        <f>G15/O2</f>
+        <v>0.54921588254921583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7"/>
+      <c r="G18" s="3">
+        <f>(L5/K2*N2)/F8</f>
+        <v>2.3707818930041151</v>
+      </c>
+      <c r="H18" s="2">
+        <f>G18/O2</f>
+        <v>0.64075186297408515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7">
-        <v>0.875000000000001</v>
-      </c>
-      <c r="C33">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C34">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="7">
-        <v>0.95833333333333404</v>
-      </c>
-      <c r="C35" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="7">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A36" s="7"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="7">
-        <v>1.0416666666666701</v>
-      </c>
-      <c r="C37" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A37" s="7"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7">
-        <v>1.0833333333333299</v>
-      </c>
-      <c r="C38" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="7">
-        <v>1.125</v>
-      </c>
-      <c r="C39" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A39" s="7"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7">
-        <v>1.1666666666666701</v>
-      </c>
-      <c r="C40" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A40" s="7"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="7">
-        <v>1.2083333333333299</v>
-      </c>
-      <c r="C41" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="C42" s="3">
-        <f>J3</f>
-        <v>3.7</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="7">
-        <v>1.2916666666666701</v>
-      </c>
-      <c r="C43" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A43" s="7"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="7">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="C44">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="7">
-        <v>1.375</v>
-      </c>
-      <c r="C45">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="7">
-        <v>1.4166666666666601</v>
-      </c>
-      <c r="C46">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="7">
-        <v>1.4583333333333299</v>
-      </c>
-      <c r="C47">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="7">
-        <v>1.49999999999999</v>
-      </c>
-      <c r="C48">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="7">
-        <v>1.5416666666666601</v>
-      </c>
-      <c r="C49">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="7">
-        <v>1.5833333333333199</v>
-      </c>
-      <c r="C50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="7">
-        <v>1.62499999999999</v>
-      </c>
-      <c r="C51">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="7">
-        <v>1.6666666666666501</v>
-      </c>
-      <c r="C52">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="7">
-        <v>1.7083333333333199</v>
-      </c>
-      <c r="C53">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="7">
-        <v>1.74999999999999</v>
-      </c>
-      <c r="C54">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="7">
-        <v>1.7916666666666501</v>
-      </c>
-      <c r="C55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="7">
-        <v>1.8333333333333199</v>
-      </c>
-      <c r="C56">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="7">
-        <v>1.87499999999998</v>
-      </c>
-      <c r="C57">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="7">
-        <v>1.9166666666666501</v>
-      </c>
-      <c r="C58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="7">
-        <v>1.9583333333333199</v>
-      </c>
-      <c r="C59">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="7">
-        <v>1.99999999999998</v>
-      </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="7">
-        <v>2.0416666666666501</v>
-      </c>
-      <c r="C61">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="7">
-        <v>2.0833333333333099</v>
-      </c>
-      <c r="C62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="7">
-        <v>2.12499999999998</v>
-      </c>
-      <c r="C63">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="7">
-        <v>2.1666666666666399</v>
-      </c>
-      <c r="C64">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="7">
-        <v>2.2083333333333099</v>
-      </c>
-      <c r="C65">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="7">
-        <v>2.2499999999999698</v>
-      </c>
-      <c r="C66">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="7">
-        <v>2.2916666666666399</v>
-      </c>
-      <c r="C67">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="7">
-        <v>2.3333333333333099</v>
-      </c>
-      <c r="C68">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="7">
-        <v>2.3749999999999698</v>
-      </c>
-      <c r="C69">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="7">
-        <v>2.4166666666666399</v>
-      </c>
-      <c r="C70">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="7">
-        <v>2.4583333333333002</v>
-      </c>
-      <c r="C71">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="7">
-        <v>2.4999999999999698</v>
-      </c>
-      <c r="C72">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="7">
-        <v>2.5416666666666399</v>
-      </c>
-      <c r="C73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="7">
-        <v>2.5833333333333002</v>
-      </c>
-      <c r="C74">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="7">
-        <v>2.6249999999999698</v>
-      </c>
-      <c r="C75">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="7">
-        <v>2.6666666666666301</v>
-      </c>
-      <c r="C76">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="7">
-        <v>2.7083333333333002</v>
-      </c>
-      <c r="C77">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="7">
-        <v>2.7499999999999698</v>
-      </c>
-      <c r="C78">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="7">
-        <v>2.7916666666666301</v>
-      </c>
-      <c r="C79">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="7">
-        <v>2.8333333333333002</v>
-      </c>
-      <c r="C80">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="7">
-        <v>2.87499999999996</v>
-      </c>
-      <c r="C81">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A81" s="7"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="7">
-        <v>2.9166666666666301</v>
-      </c>
-      <c r="C82">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="7">
-        <v>2.9583333333333002</v>
-      </c>
-      <c r="C83" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A83" s="7"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="7">
-        <v>2.99999999999996</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A84" s="7"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="7">
-        <v>3.0416666666666301</v>
-      </c>
-      <c r="C85" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A85" s="7"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="7">
-        <v>3.08333333333329</v>
-      </c>
-      <c r="C86" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A86" s="7"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="7">
-        <v>3.12499999999996</v>
-      </c>
-      <c r="C87" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A87" s="7"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="7">
-        <v>3.1666666666666301</v>
-      </c>
-      <c r="C88" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A88" s="7"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="7">
-        <v>3.20833333333329</v>
-      </c>
-      <c r="C89" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A89" s="7"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="7">
-        <v>3.24999999999996</v>
-      </c>
-      <c r="C90" s="3">
-        <f>J5</f>
-        <v>3.7</v>
-      </c>
+      <c r="A90" s="7"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="7">
-        <v>3.2916666666666199</v>
-      </c>
-      <c r="C91" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A91" s="7"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="7">
-        <v>3.33333333333329</v>
-      </c>
-      <c r="C92" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A92" s="7"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="7">
-        <v>3.37499999999996</v>
-      </c>
-      <c r="C93" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A93" s="7"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="7">
-        <v>3.4166666666666199</v>
-      </c>
-      <c r="C94" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A94" s="7"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="7">
-        <v>3.45833333333329</v>
-      </c>
-      <c r="C95" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A95" s="7"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="7">
-        <v>3.4999999999999498</v>
-      </c>
-      <c r="C96" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A96" s="7"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="7">
-        <v>3.5416666666666199</v>
-      </c>
-      <c r="C97" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A97" s="7"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="7">
-        <v>3.58333333333329</v>
-      </c>
-      <c r="C98" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A98" s="7"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="7">
-        <v>3.6249999999999498</v>
-      </c>
-      <c r="C99" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A99" s="7"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="7">
-        <v>3.6666666666666199</v>
-      </c>
-      <c r="C100" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A100" s="7"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="7">
-        <v>3.7083333333332802</v>
-      </c>
-      <c r="C101" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A101" s="7"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="7">
-        <v>3.7499999999999498</v>
-      </c>
-      <c r="C102" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A102" s="7"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="7">
-        <v>3.7916666666666199</v>
-      </c>
-      <c r="C103" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A103" s="7"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="7">
-        <v>3.8333333333332802</v>
-      </c>
-      <c r="C104" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A104" s="7"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="7">
-        <v>3.8749999999999498</v>
-      </c>
-      <c r="C105" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A105" s="7"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="7">
-        <v>3.9166666666666101</v>
-      </c>
-      <c r="C106" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A106" s="7"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="7">
-        <v>3.9583333333332802</v>
-      </c>
-      <c r="C107" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A107" s="7"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="7">
-        <v>3.9999999999999498</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A108" s="7"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="7">
-        <v>4.0416666666666101</v>
-      </c>
-      <c r="C109" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A109" s="7"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="7">
-        <v>4.0833333333332797</v>
-      </c>
-      <c r="C110" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A110" s="7"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="7">
-        <v>4.1249999999999396</v>
-      </c>
-      <c r="C111" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A111" s="7"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="7">
-        <v>4.1666666666666101</v>
-      </c>
-      <c r="C112" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A112" s="7"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="7">
-        <v>4.20833333333327</v>
-      </c>
-      <c r="C113" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A113" s="7"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="7">
-        <v>4.2499999999999396</v>
-      </c>
-      <c r="C114" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A114" s="7"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="7">
-        <v>4.2916666666666101</v>
-      </c>
-      <c r="C115" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A115" s="7"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="7">
-        <v>4.33333333333327</v>
-      </c>
-      <c r="C116" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A116" s="7"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="7">
-        <v>4.3749999999999396</v>
-      </c>
-      <c r="C117" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A117" s="7"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="7">
-        <v>4.4166666666666003</v>
-      </c>
-      <c r="C118" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A118" s="7"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="7">
-        <v>4.45833333333327</v>
-      </c>
-      <c r="C119" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A119" s="7"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="7">
-        <v>4.4999999999999396</v>
-      </c>
-      <c r="C120" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A120" s="7"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="7">
-        <v>4.5416666666666003</v>
-      </c>
-      <c r="C121" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A121" s="7"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="7">
-        <v>4.58333333333327</v>
-      </c>
-      <c r="C122" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A122" s="7"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="7">
-        <v>4.6249999999999298</v>
-      </c>
-      <c r="C123" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A123" s="7"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="7">
-        <v>4.6666666666666003</v>
-      </c>
-      <c r="C124" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A124" s="7"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="7">
-        <v>4.70833333333327</v>
-      </c>
-      <c r="C125" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A125" s="7"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="7">
-        <v>4.7499999999999298</v>
-      </c>
-      <c r="C126" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A126" s="7"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="7">
-        <v>4.7916666666666003</v>
-      </c>
-      <c r="C127" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A127" s="7"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="7">
-        <v>4.8333333333332602</v>
-      </c>
-      <c r="C128" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A128" s="7"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="7">
-        <v>4.8749999999999298</v>
-      </c>
-      <c r="C129" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A129" s="7"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="7">
-        <v>4.9166666666666003</v>
-      </c>
-      <c r="C130" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A130" s="7"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="7">
-        <v>4.9583333333332602</v>
-      </c>
-      <c r="C131" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A131" s="7"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="7">
-        <v>4.9999999999999298</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A132" s="7"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="7">
-        <v>5.0416666666665897</v>
-      </c>
-      <c r="C133" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A133" s="7"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="7">
-        <v>5.0833333333332602</v>
-      </c>
-      <c r="C134" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A134" s="7"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="7">
-        <v>5.1249999999999298</v>
-      </c>
-      <c r="C135" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A135" s="7"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="7">
-        <v>5.1666666666665897</v>
-      </c>
-      <c r="C136" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A136" s="7"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="7">
-        <v>5.2083333333332602</v>
-      </c>
-      <c r="C137" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A137" s="7"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="7">
-        <v>5.2499999999999201</v>
-      </c>
-      <c r="C138" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A138" s="7"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="7">
-        <v>5.2916666666665897</v>
-      </c>
-      <c r="C139" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A139" s="7"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="7">
-        <v>5.3333333333332602</v>
-      </c>
-      <c r="C140" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A140" s="7"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="7">
-        <v>5.3749999999999201</v>
-      </c>
-      <c r="C141" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A141" s="7"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="7">
-        <v>5.4166666666665897</v>
-      </c>
-      <c r="C142" s="3">
-        <f>J8</f>
-        <v>0</v>
-      </c>
+      <c r="A142" s="7"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="7">
-        <v>5.4583333333332504</v>
-      </c>
-      <c r="C143" s="3">
-        <f>J8</f>
-        <v>0</v>
-      </c>
+      <c r="A143" s="7"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="7">
-        <v>5.4999999999999201</v>
-      </c>
-      <c r="C144" s="3">
-        <f>J8</f>
-        <v>0</v>
-      </c>
+      <c r="A144" s="7"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="7">
-        <v>5.5416666666665897</v>
-      </c>
-      <c r="C145" s="3">
-        <f>J8</f>
-        <v>0</v>
-      </c>
+      <c r="A145" s="7"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="7">
-        <v>5.5833333333332504</v>
-      </c>
-      <c r="C146" s="3">
-        <f>J8</f>
-        <v>0</v>
-      </c>
+      <c r="A146" s="7"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="7">
-        <v>5.6249999999999201</v>
-      </c>
-      <c r="C147" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A147" s="7"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="7">
-        <v>5.6666666666665799</v>
-      </c>
-      <c r="C148" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A148" s="7"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="7">
-        <v>5.7083333333332504</v>
-      </c>
-      <c r="C149" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A149" s="7"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="7">
-        <v>5.7499999999999201</v>
-      </c>
-      <c r="C150" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A150" s="7"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="7">
-        <v>5.7916666666665799</v>
-      </c>
-      <c r="C151" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A151" s="7"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="7">
-        <v>5.8333333333332504</v>
-      </c>
-      <c r="C152" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A152" s="7"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="7">
-        <v>5.8749999999999103</v>
-      </c>
-      <c r="C153" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A153" s="7"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="7">
-        <v>5.9166666666665799</v>
-      </c>
-      <c r="C154" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A154" s="7"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="7">
-        <v>5.9583333333332504</v>
-      </c>
-      <c r="C155" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A155" s="7"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="7">
-        <v>5.9999999999999103</v>
-      </c>
-      <c r="B156" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A156" s="7"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="7">
-        <v>6.0416666666665799</v>
-      </c>
-      <c r="C157" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A157" s="7"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="7">
-        <v>6.0833333333332398</v>
-      </c>
-      <c r="C158" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A158" s="7"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="7">
-        <v>6.1249999999999103</v>
-      </c>
-      <c r="C159" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A159" s="7"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="7">
-        <v>6.1666666666665799</v>
-      </c>
-      <c r="C160" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A160" s="7"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="7">
-        <v>6.2083333333332398</v>
-      </c>
-      <c r="C161" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A161" s="7"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="7">
-        <v>6.2499999999999103</v>
-      </c>
-      <c r="C162" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A162" s="7"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="7">
-        <v>6.2916666666665702</v>
-      </c>
-      <c r="C163" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A163" s="7"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="7">
-        <v>6.3333333333332398</v>
-      </c>
-      <c r="C164" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A164" s="7"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="7">
-        <v>6.3749999999999103</v>
-      </c>
-      <c r="C165" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A165" s="7"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="7">
-        <v>6.4166666666665702</v>
-      </c>
-      <c r="C166" s="3">
-        <f>J9</f>
-        <v>0</v>
-      </c>
+      <c r="A166" s="7"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="7">
-        <v>6.4583333333332398</v>
-      </c>
-      <c r="C167" s="3">
-        <f>J9</f>
-        <v>0</v>
-      </c>
+      <c r="A167" s="7"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="7">
-        <v>6.4999999999998996</v>
-      </c>
-      <c r="C168" s="3">
-        <f>J9</f>
-        <v>0</v>
-      </c>
+      <c r="A168" s="7"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="7">
-        <v>6.5416666666665702</v>
-      </c>
-      <c r="C169" s="3">
-        <f>J9</f>
-        <v>0</v>
-      </c>
+      <c r="A169" s="7"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="7">
-        <v>6.58333333333323</v>
-      </c>
-      <c r="C170" s="3">
-        <f>J9</f>
-        <v>0</v>
-      </c>
+      <c r="A170" s="7"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="7">
-        <v>6.6249999999998996</v>
-      </c>
-      <c r="C171" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A171" s="7"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="7">
-        <v>6.6666666666665702</v>
-      </c>
-      <c r="C172" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A172" s="7"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="7">
-        <v>6.70833333333323</v>
-      </c>
-      <c r="C173" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A173" s="7"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="7">
-        <v>6.7499999999998996</v>
-      </c>
-      <c r="C174" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A174" s="7"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="7">
-        <v>6.7916666666665604</v>
-      </c>
-      <c r="C175" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A175" s="7"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="7">
-        <v>6.83333333333323</v>
-      </c>
-      <c r="C176" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A176" s="7"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="7">
-        <v>6.8749999999998996</v>
-      </c>
-      <c r="C177" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A177" s="7"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="7">
-        <v>6.9166666666665604</v>
-      </c>
-      <c r="C178" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A178" s="7"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="7">
-        <v>6.95833333333323</v>
-      </c>
-      <c r="C179" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="A179" s="7"/>
+      <c r="C179" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/EV Calculation.xlsx
+++ b/data/EV Calculation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1448" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A1B3A3-9734-4857-B82D-F05CD165754C}"/>
+  <xr:revisionPtr revIDLastSave="1475" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8904C60A-AE88-9A42-9B2C-FFB28CDBA466}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="No smart charging" sheetId="3" r:id="rId2"/>
     <sheet name="Smart charging" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
-  <si>
-    <t>Datetime</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Hour</t>
   </si>
@@ -49,31 +46,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Load_EV_kW_no_SC</t>
-  </si>
-  <si>
-    <t>Load_EV_kW_SC</t>
-  </si>
-  <si>
-    <t>Charging_type_EV_B2C</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Correction_factor</t>
-  </si>
-  <si>
     <t>Monday</t>
-  </si>
-  <si>
-    <t>charging</t>
-  </si>
-  <si>
-    <t>uncharging</t>
-  </si>
-  <si>
-    <t>disconnected</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -142,16 +115,76 @@
     <t>Charging time</t>
   </si>
   <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Load_EV_kW_no_SC</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Correction_factor</t>
+  </si>
+  <si>
+    <t>Load_EV_kW_SC</t>
+  </si>
+  <si>
+    <t>charging</t>
+  </si>
+  <si>
+    <t>uncharging</t>
+  </si>
+  <si>
+    <t>disconnected</t>
+  </si>
+  <si>
     <t>Average charging load</t>
+  </si>
+  <si>
+    <t>Ratio to max power</t>
   </si>
   <si>
     <t>Average charge</t>
   </si>
   <si>
-    <t>Ratio to max power</t>
+    <t>Charging_type_EV_B2C</t>
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>B2G</t>
+  </si>
+  <si>
+    <t>max battery:</t>
+  </si>
+  <si>
+    <t>max cap</t>
+  </si>
+  <si>
+    <t>kWH</t>
+  </si>
+  <si>
+    <t>driving loss</t>
+  </si>
+  <si>
+    <t>household loss</t>
+  </si>
+  <si>
+    <t>end of day power</t>
+  </si>
+  <si>
+    <t>to be added overnight to bring back to 80%:</t>
+  </si>
+  <si>
+    <t>Max charging power:</t>
+  </si>
+  <si>
+    <t>hours needed:</t>
+  </si>
+  <si>
+    <t>kW</t>
   </si>
 </sst>
 </file>
@@ -162,7 +195,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,48 +600,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03086007-FF13-4F03-A8AB-B476DD27065A}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>43101</v>
       </c>
@@ -616,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <f>0</f>
@@ -627,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
@@ -636,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>43101.041666666664</v>
       </c>
@@ -652,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G3" s="10">
         <v>2</v>
@@ -661,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>43101.083333333336</v>
       </c>
@@ -677,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G4" s="10">
         <v>3</v>
@@ -686,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>43101.124999826388</v>
       </c>
@@ -709,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>43101.166666435187</v>
       </c>
@@ -732,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>43101.208333043978</v>
       </c>
@@ -755,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>43101.249999652777</v>
       </c>
@@ -778,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>43101.291666261575</v>
       </c>
@@ -801,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>43101.333332870374</v>
       </c>
@@ -824,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>43101.374999479165</v>
       </c>
@@ -847,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>43101.416666087964</v>
       </c>
@@ -870,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>43101.458332696762</v>
       </c>
@@ -893,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>43101.499999305554</v>
       </c>
@@ -916,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>43101.541665914352</v>
       </c>
@@ -939,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>43101.583332523151</v>
       </c>
@@ -962,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>43101.624999131942</v>
       </c>
@@ -985,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>43101.66666574074</v>
       </c>
@@ -1008,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>43101.708332349539</v>
       </c>
@@ -1031,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>43101.74999895833</v>
       </c>
@@ -1054,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>43101.791665567129</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>43101.833332175927</v>
       </c>
@@ -1100,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>43101.874998784719</v>
       </c>
@@ -1123,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>43101.916665393517</v>
       </c>
@@ -1146,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>43101.958332002316</v>
       </c>
@@ -1169,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>43101.999998611114</v>
       </c>
@@ -1177,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <f>0</f>
@@ -1195,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>43102.041665219906</v>
       </c>
@@ -1218,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>43102.083331828704</v>
       </c>
@@ -1241,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>43102.124998437503</v>
       </c>
@@ -1264,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>43102.166665046294</v>
       </c>
@@ -1287,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>43102.208331655092</v>
       </c>
@@ -1310,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>43102.249998263891</v>
       </c>
@@ -1333,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>43102.291664872682</v>
       </c>
@@ -1355,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>43102.333331481481</v>
       </c>
@@ -1377,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>43102.374998090279</v>
       </c>
@@ -1399,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>43102.416664699071</v>
       </c>
@@ -1421,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>43102.458331307869</v>
       </c>
@@ -1443,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>43102.499997916668</v>
       </c>
@@ -1465,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>43102.541664525466</v>
       </c>
@@ -1487,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>43102.583331134258</v>
       </c>
@@ -1509,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>43102.624997743056</v>
       </c>
@@ -1531,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>43102.666664351855</v>
       </c>
@@ -1553,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>43102.708330960646</v>
       </c>
@@ -1575,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43102.749997569445</v>
       </c>
@@ -1597,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>43102.791664178243</v>
       </c>
@@ -1619,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>43102.833330787034</v>
       </c>
@@ -1641,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>43102.874997395833</v>
       </c>
@@ -1663,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>43102.916664004631</v>
       </c>
@@ -1685,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>43102.958330613423</v>
       </c>
@@ -1707,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>43102.999997222221</v>
       </c>
@@ -1715,7 +1748,7 @@
         <v>1.99999999999998</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3">
         <f>0</f>
@@ -1732,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>43103.04166383102</v>
       </c>
@@ -1754,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>43103.083330439818</v>
       </c>
@@ -1776,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>43103.12499704861</v>
       </c>
@@ -1798,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>43103.166663657408</v>
       </c>
@@ -1817,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>43103.208330266207</v>
       </c>
@@ -1836,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>43103.249996874998</v>
       </c>
@@ -1855,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>43103.291663483797</v>
       </c>
@@ -1874,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>43103.333330092595</v>
       </c>
@@ -1893,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>43103.374996701386</v>
       </c>
@@ -1912,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>43103.416663310185</v>
       </c>
@@ -1931,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>43103.458329918984</v>
       </c>
@@ -1950,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>43103.499996527775</v>
       </c>
@@ -1969,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>43103.541663136573</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>43103.583329745372</v>
       </c>
@@ -2007,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>43103.624996354163</v>
       </c>
@@ -2026,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>43103.666662962962</v>
       </c>
@@ -2045,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>43103.70832957176</v>
       </c>
@@ -2064,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>43103.749996180559</v>
       </c>
@@ -2083,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>43103.79166278935</v>
       </c>
@@ -2102,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>43103.833329398149</v>
       </c>
@@ -2121,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>43103.874996006947</v>
       </c>
@@ -2140,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>43103.916662615738</v>
       </c>
@@ -2159,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>43103.958329224537</v>
       </c>
@@ -2179,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>43103.999995833336</v>
       </c>
@@ -2187,7 +2220,7 @@
         <v>2.99999999999996</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D74" s="3">
         <f>0</f>
@@ -2202,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>43104.041662442127</v>
       </c>
@@ -2222,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>43104.083329050925</v>
       </c>
@@ -2242,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>43104.124995659724</v>
       </c>
@@ -2262,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>43104.166662268515</v>
       </c>
@@ -2282,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>43104.208328877314</v>
       </c>
@@ -2302,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>43104.249995486112</v>
       </c>
@@ -2322,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>43104.291662094911</v>
       </c>
@@ -2342,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>43104.333328703702</v>
       </c>
@@ -2362,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>43104.374995312501</v>
       </c>
@@ -2382,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>43104.416661921299</v>
       </c>
@@ -2402,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>43104.458328530091</v>
       </c>
@@ -2422,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>43104.499995138889</v>
       </c>
@@ -2442,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>43104.541661747688</v>
       </c>
@@ -2462,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>43104.583328356479</v>
       </c>
@@ -2482,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>43104.624994965277</v>
       </c>
@@ -2502,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>43104.666661574076</v>
       </c>
@@ -2522,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>43104.708328182867</v>
       </c>
@@ -2542,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>43104.749994791666</v>
       </c>
@@ -2562,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>43104.791661400464</v>
       </c>
@@ -2582,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>43104.833328009256</v>
       </c>
@@ -2602,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>43104.874994618054</v>
       </c>
@@ -2622,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>43104.916661226853</v>
       </c>
@@ -2642,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>43104.958327835651</v>
       </c>
@@ -2662,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>43104.999994444443</v>
       </c>
@@ -2670,7 +2703,7 @@
         <v>3.9999999999999498</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D98" s="3">
         <f>0</f>
@@ -2685,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>43105.041661053241</v>
       </c>
@@ -2705,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>43105.08332766204</v>
       </c>
@@ -2725,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>43105.124994270831</v>
       </c>
@@ -2745,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>43105.166660879629</v>
       </c>
@@ -2765,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>43105.208327488428</v>
       </c>
@@ -2785,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>43105.249994097219</v>
       </c>
@@ -2805,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>43105.291660706018</v>
       </c>
@@ -2825,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>43105.333327314816</v>
       </c>
@@ -2845,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>43105.374993923608</v>
       </c>
@@ -2865,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>43105.416660532406</v>
       </c>
@@ -2885,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>43105.458327141205</v>
       </c>
@@ -2905,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>43105.499993750003</v>
       </c>
@@ -2925,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>43105.541660358795</v>
       </c>
@@ -2945,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>43105.583326967593</v>
       </c>
@@ -2965,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>43105.624993576392</v>
       </c>
@@ -2985,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>43105.666660185183</v>
       </c>
@@ -3005,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>43105.708326793982</v>
       </c>
@@ -3025,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>43105.74999340278</v>
       </c>
@@ -3045,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>43105.791660011571</v>
       </c>
@@ -3065,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>43105.83332662037</v>
       </c>
@@ -3085,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>43105.874993229168</v>
       </c>
@@ -3105,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>43105.91665983796</v>
       </c>
@@ -3125,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>43105.958326446758</v>
       </c>
@@ -3145,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>43105.999993055557</v>
       </c>
@@ -3153,7 +3186,7 @@
         <v>4.9999999999999298</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D122" s="3">
         <f>0</f>
@@ -3168,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>43106.041659664355</v>
       </c>
@@ -3188,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>43106.083326273147</v>
       </c>
@@ -3208,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>43106.124992881945</v>
       </c>
@@ -3228,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>43106.166659490744</v>
       </c>
@@ -3248,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>43106.208326099535</v>
       </c>
@@ -3268,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>43106.249992708334</v>
       </c>
@@ -3288,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>43106.291659317132</v>
       </c>
@@ -3308,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>43106.333325925923</v>
       </c>
@@ -3328,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>43106.374992534722</v>
       </c>
@@ -3348,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>43106.416659143521</v>
       </c>
@@ -3368,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>43106.458325752312</v>
       </c>
@@ -3388,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>43106.49999236111</v>
       </c>
@@ -3408,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>43106.541658969909</v>
       </c>
@@ -3428,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>43106.5833255787</v>
       </c>
@@ -3448,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
         <v>43106.624992187499</v>
       </c>
@@ -3468,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>43106.666658796297</v>
       </c>
@@ -3488,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>43106.708325405096</v>
       </c>
@@ -3508,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>43106.749992013887</v>
       </c>
@@ -3528,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>43106.791658622686</v>
       </c>
@@ -3548,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>43106.833325231484</v>
       </c>
@@ -3568,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>43106.874991840275</v>
       </c>
@@ -3588,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>43106.916658449074</v>
       </c>
@@ -3608,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>43106.958325057873</v>
       </c>
@@ -3628,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>43106.999991666664</v>
       </c>
@@ -3636,7 +3669,7 @@
         <v>5.9999999999999103</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D146" s="3">
         <f>0</f>
@@ -3651,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>43107.041658275462</v>
       </c>
@@ -3671,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>43107.083324884261</v>
       </c>
@@ -3691,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>43107.124991493052</v>
       </c>
@@ -3711,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>43107.166658101851</v>
       </c>
@@ -3731,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>43107.208324710649</v>
       </c>
@@ -3751,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>43107.249991319448</v>
       </c>
@@ -3771,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>43107.291657928239</v>
       </c>
@@ -3791,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>43107.333324537038</v>
       </c>
@@ -3811,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>43107.374991145836</v>
       </c>
@@ -3831,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>43107.416657754628</v>
       </c>
@@ -3851,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>43107.458324363426</v>
       </c>
@@ -3871,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>43107.499990972225</v>
       </c>
@@ -3891,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>43107.541657581016</v>
       </c>
@@ -3911,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>43107.583324189814</v>
       </c>
@@ -3931,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>43107.624990798613</v>
       </c>
@@ -3951,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>43107.666657407404</v>
       </c>
@@ -3971,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>43107.708324016203</v>
       </c>
@@ -3991,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>43107.749990625001</v>
       </c>
@@ -4011,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>43107.7916572338</v>
       </c>
@@ -4031,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>43107.833323842591</v>
       </c>
@@ -4051,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>43107.87499045139</v>
       </c>
@@ -4071,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>43107.916657060188</v>
       </c>
@@ -4091,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>43107.95832366898</v>
       </c>
@@ -4123,72 +4156,73 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f>K2*P2</f>
@@ -4247,9 +4281,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f>D2+((F2*I2)/N2)*K2</f>
@@ -4284,9 +4318,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8">
         <f>D3+((F3*I3)/N2)*K2</f>
@@ -4321,12 +4355,12 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8">
         <f>D4+((F4*I4)/N2)*K2</f>
@@ -4365,9 +4399,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <f>D5+((F5*I5)/N2)*K2</f>
@@ -4402,7 +4436,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -4412,9 +4446,9 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <f>(D6)+((F6*I6)/N2)*K2</f>
@@ -4449,9 +4483,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <f>D8+((F8*I8)/N2)*K2</f>
@@ -4486,31 +4520,31 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="5"/>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F22">
         <f>(C2-E2)*N2</f>
         <v>14.224691358024691</v>
@@ -4525,78 +4559,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBC39DF-7100-4202-BE5F-35CFC9F04E32}">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f>K2*P2</f>
@@ -4655,9 +4689,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f>D2+((F2*I2)/N2)*K2</f>
@@ -4692,9 +4726,9 @@
         <v>2.0320987654320986</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <f>D3+((F3*I3)/N2)*K2</f>
@@ -4729,12 +4763,12 @@
         <v>2.0320987654320986</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <f>D4+((F4*I4)/N2)*K2</f>
@@ -4773,9 +4807,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <f>D5+((F5*I5)/N2)*K2</f>
@@ -4810,7 +4844,7 @@
         <v>2.0320987654320986</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -4819,9 +4853,9 @@
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <f>D6+((F6*I6)/N2)*K2</f>
@@ -4857,9 +4891,9 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <f>D8</f>
@@ -4895,28 +4929,28 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="G15" s="3">
         <f>(L2/K2*N2)/F2</f>
@@ -4927,10 +4961,10 @@
         <v>0.54921588254921583</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -4942,10 +4976,10 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="G18" s="3">
         <f>(L5/K2*N2)/F8</f>
@@ -4956,594 +4990,700 @@
         <v>0.64075186297408515</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="C179" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C41F1D-362D-9D40-9C19-D9939CCD42B4}">
+  <dimension ref="D7:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <f>0.8*G7</f>
+        <v>65.84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <f>0.2*G7</f>
+        <v>16.46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f>E8-E9-E10</f>
+        <v>40.380000000000003</v>
+      </c>
+      <c r="G11">
+        <f>E11/G7</f>
+        <v>0.49064398541919813</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <f>G7-E11</f>
+        <v>41.919999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>3.7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <f>E13/E14</f>
+        <v>11.329729729729728</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/EV Calculation.xlsx
+++ b/data/EV Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1475" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8904C60A-AE88-9A42-9B2C-FFB28CDBA466}"/>
+  <xr:revisionPtr revIDLastSave="1477" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481ED280-57F8-4E4D-8244-F4B082F818E5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Hour</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>kW</t>
+  </si>
+  <si>
+    <t>110 euro</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
 </sst>
 </file>
@@ -5586,10 +5592,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C41F1D-362D-9D40-9C19-D9939CCD42B4}">
-  <dimension ref="D7:G15"/>
+  <dimension ref="D7:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5685,6 +5691,14 @@
         <v>11.329729729729728</v>
       </c>
     </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/EV Calculation.xlsx
+++ b/data/EV Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1477" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481ED280-57F8-4E4D-8244-F4B082F818E5}"/>
+  <xr:revisionPtr revIDLastSave="1488" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B4FB7DE-C795-A342-A6A7-80184A75D782}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -37,13 +37,47 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+  <si>
+    <t>Datetime</t>
+  </si>
   <si>
     <t>Hour</t>
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>Load_EV_kW_no_SC</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Correction_factor</t>
   </si>
   <si>
     <t>Monday</t>
@@ -115,40 +149,13 @@
     <t>Charging time</t>
   </si>
   <si>
-    <t>Datetime</t>
-  </si>
-  <si>
-    <t>Load_EV_kW_no_SC</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Correction_factor</t>
-  </si>
-  <si>
-    <t>Load_EV_kW_SC</t>
-  </si>
-  <si>
-    <t>charging</t>
-  </si>
-  <si>
-    <t>uncharging</t>
-  </si>
-  <si>
-    <t>disconnected</t>
-  </si>
-  <si>
     <t>Average charging load</t>
-  </si>
-  <si>
-    <t>Ratio to max power</t>
   </si>
   <si>
     <t>Average charge</t>
   </si>
   <si>
-    <t>Charging_type_EV_B2C</t>
+    <t>Ratio to max power</t>
   </si>
   <si>
     <t>Period</t>
@@ -157,10 +164,10 @@
     <t>B2G</t>
   </si>
   <si>
-    <t>max battery:</t>
+    <t>max cap</t>
   </si>
   <si>
-    <t>max cap</t>
+    <t>max battery:</t>
   </si>
   <si>
     <t>kWH</t>
@@ -181,16 +188,19 @@
     <t>Max charging power:</t>
   </si>
   <si>
-    <t>hours needed:</t>
+    <t>kW</t>
   </si>
   <si>
-    <t>kW</t>
+    <t>hours needed:</t>
   </si>
   <si>
     <t>110 euro</t>
   </si>
   <si>
     <t>1.9</t>
+  </si>
+  <si>
+    <t>Load_EV_kW_with_SC</t>
   </si>
 </sst>
 </file>
@@ -604,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03086007-FF13-4F03-A8AB-B476DD27065A}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -616,38 +626,34 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>43101</v>
       </c>
@@ -655,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <f>0</f>
@@ -665,17 +671,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>43101.041666666664</v>
       </c>
@@ -690,17 +693,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="10">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>43101.083333333336</v>
       </c>
@@ -715,17 +715,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>43101.124999826388</v>
       </c>
@@ -740,15 +737,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="10">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>43101.166666435187</v>
       </c>
@@ -763,15 +759,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="10">
+      <c r="F6" s="10">
         <v>5</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>43101.208333043978</v>
       </c>
@@ -786,15 +781,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="10">
+      <c r="F7" s="10">
         <v>6</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>43101.249999652777</v>
       </c>
@@ -809,15 +803,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10">
+      <c r="F8" s="10">
         <v>7</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>43101.291666261575</v>
       </c>
@@ -832,15 +825,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="10">
+      <c r="F9" s="10">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>43101.333332870374</v>
       </c>
@@ -855,15 +847,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="10">
+      <c r="F10" s="10">
         <v>9</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>43101.374999479165</v>
       </c>
@@ -878,15 +869,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
         <v>10</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>43101.416666087964</v>
       </c>
@@ -901,15 +891,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="10">
+      <c r="F12" s="10">
         <v>11</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>43101.458332696762</v>
       </c>
@@ -924,15 +913,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="10">
+      <c r="F13" s="10">
         <v>12</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>43101.499999305554</v>
       </c>
@@ -947,15 +935,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="10">
+      <c r="F14" s="10">
         <v>13</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>43101.541665914352</v>
       </c>
@@ -970,15 +957,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="10">
+      <c r="F15" s="10">
         <v>14</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>43101.583332523151</v>
       </c>
@@ -993,15 +979,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="10">
+      <c r="F16" s="10">
         <v>15</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>43101.624999131942</v>
       </c>
@@ -1016,15 +1001,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="10">
+      <c r="F17" s="10">
         <v>16</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>43101.66666574074</v>
       </c>
@@ -1039,15 +1023,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="10">
+      <c r="F18" s="10">
         <v>17</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>43101.708332349539</v>
       </c>
@@ -1062,15 +1045,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="10">
+      <c r="F19" s="10">
         <v>18</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>43101.74999895833</v>
       </c>
@@ -1085,15 +1067,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="10">
+      <c r="F20" s="10">
         <v>19</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>43101.791665567129</v>
       </c>
@@ -1108,15 +1089,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="10">
+      <c r="F21" s="10">
         <v>20</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>43101.833332175927</v>
       </c>
@@ -1131,15 +1111,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="10">
+      <c r="F22" s="10">
         <v>21</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>43101.874998784719</v>
       </c>
@@ -1154,15 +1133,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="10">
+      <c r="F23" s="10">
         <v>22</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>43101.916665393517</v>
       </c>
@@ -1177,15 +1155,14 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="10">
+      <c r="F24" s="10">
         <v>23</v>
       </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>43101.958332002316</v>
       </c>
@@ -1200,15 +1177,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="10">
+      <c r="F25" s="10">
         <v>24</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>43101.999998611114</v>
       </c>
@@ -1216,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3">
         <f>0</f>
@@ -1226,15 +1202,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="10">
+      <c r="F26" s="10">
         <v>25</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>43102.041665219906</v>
       </c>
@@ -1249,15 +1224,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="10">
+      <c r="F27" s="10">
         <v>26</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>43102.083331828704</v>
       </c>
@@ -1272,15 +1246,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="10">
+      <c r="F28" s="10">
         <v>27</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>43102.124998437503</v>
       </c>
@@ -1295,15 +1268,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="10">
+      <c r="F29" s="10">
         <v>28</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>43102.166665046294</v>
       </c>
@@ -1318,15 +1290,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="10">
+      <c r="F30" s="10">
         <v>29</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>43102.208331655092</v>
       </c>
@@ -1341,15 +1312,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="10">
+      <c r="F31" s="10">
         <v>30</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>43102.249998263891</v>
       </c>
@@ -1364,15 +1334,14 @@
         <f>'Smart charging'!I3</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="10">
+      <c r="F32" s="10">
         <v>31</v>
       </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>43102.291664872682</v>
       </c>
@@ -1386,15 +1355,14 @@
       <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="10">
+      <c r="F33" s="10">
         <v>32</v>
       </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>43102.333331481481</v>
       </c>
@@ -1408,15 +1376,14 @@
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="10">
+      <c r="F34" s="10">
         <v>33</v>
       </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>43102.374998090279</v>
       </c>
@@ -1430,15 +1397,14 @@
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="10">
+      <c r="F35" s="10">
         <v>34</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>43102.416664699071</v>
       </c>
@@ -1452,15 +1418,14 @@
       <c r="E36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="10">
+      <c r="F36" s="10">
         <v>35</v>
       </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>43102.458331307869</v>
       </c>
@@ -1474,15 +1439,14 @@
       <c r="E37" s="3">
         <v>0</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="10">
+      <c r="F37" s="10">
         <v>36</v>
       </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>43102.499997916668</v>
       </c>
@@ -1496,15 +1460,14 @@
       <c r="E38" s="3">
         <v>0</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="10">
+      <c r="F38" s="10">
         <v>37</v>
       </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>43102.541664525466</v>
       </c>
@@ -1518,15 +1481,14 @@
       <c r="E39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="10">
+      <c r="F39" s="10">
         <v>38</v>
       </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>43102.583331134258</v>
       </c>
@@ -1540,15 +1502,14 @@
       <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="10">
+      <c r="F40" s="10">
         <v>39</v>
       </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>43102.624997743056</v>
       </c>
@@ -1562,15 +1523,14 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="10">
+      <c r="F41" s="10">
         <v>40</v>
       </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>43102.666664351855</v>
       </c>
@@ -1584,15 +1544,14 @@
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="10">
+      <c r="F42" s="10">
         <v>41</v>
       </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>43102.708330960646</v>
       </c>
@@ -1606,15 +1565,14 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="10">
+      <c r="F43" s="10">
         <v>42</v>
       </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43102.749997569445</v>
       </c>
@@ -1628,15 +1586,14 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="10">
+      <c r="F44" s="10">
         <v>43</v>
       </c>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>43102.791664178243</v>
       </c>
@@ -1650,15 +1607,14 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="10">
+      <c r="F45" s="10">
         <v>44</v>
       </c>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>43102.833330787034</v>
       </c>
@@ -1672,15 +1628,14 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="10">
+      <c r="F46" s="10">
         <v>45</v>
       </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>43102.874997395833</v>
       </c>
@@ -1694,15 +1649,14 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="10">
+      <c r="F47" s="10">
         <v>46</v>
       </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>43102.916664004631</v>
       </c>
@@ -1716,15 +1670,14 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="10">
+      <c r="F48" s="10">
         <v>47</v>
       </c>
-      <c r="H48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>43102.958330613423</v>
       </c>
@@ -1738,15 +1691,14 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="10">
+      <c r="F49" s="10">
         <v>48</v>
       </c>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>43102.999997222221</v>
       </c>
@@ -1754,7 +1706,7 @@
         <v>1.99999999999998</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3">
         <f>0</f>
@@ -1763,15 +1715,14 @@
       <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="10">
+      <c r="F50" s="10">
         <v>49</v>
       </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>43103.04166383102</v>
       </c>
@@ -1785,15 +1736,14 @@
       <c r="E51" s="3">
         <v>0</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="10">
+      <c r="F51" s="10">
         <v>50</v>
       </c>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>43103.083330439818</v>
       </c>
@@ -1807,15 +1757,14 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="10">
+      <c r="F52" s="10">
         <v>51</v>
       </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>43103.12499704861</v>
       </c>
@@ -1829,15 +1778,14 @@
       <c r="E53" s="3">
         <v>0</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="10">
+      <c r="F53" s="10">
         <v>52</v>
       </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>43103.166663657408</v>
       </c>
@@ -1851,12 +1799,11 @@
       <c r="E54" s="3">
         <v>0</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>43103.208330266207</v>
       </c>
@@ -1870,12 +1817,11 @@
       <c r="E55" s="3">
         <v>0</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>43103.249996874998</v>
       </c>
@@ -1889,12 +1835,11 @@
       <c r="E56" s="3">
         <v>0</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>43103.291663483797</v>
       </c>
@@ -1908,12 +1853,11 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>43103.333330092595</v>
       </c>
@@ -1927,12 +1871,11 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>43103.374996701386</v>
       </c>
@@ -1946,12 +1889,11 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>43103.416663310185</v>
       </c>
@@ -1965,12 +1907,11 @@
       <c r="E60" s="3">
         <v>0</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>43103.458329918984</v>
       </c>
@@ -1984,12 +1925,11 @@
       <c r="E61" s="3">
         <v>0</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="H61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>43103.499996527775</v>
       </c>
@@ -2003,12 +1943,11 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="H62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>43103.541663136573</v>
       </c>
@@ -2022,12 +1961,11 @@
       <c r="E63" s="3">
         <v>0</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>43103.583329745372</v>
       </c>
@@ -2041,12 +1979,11 @@
       <c r="E64" s="3">
         <v>0</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>43103.624996354163</v>
       </c>
@@ -2060,12 +1997,11 @@
       <c r="E65" s="3">
         <v>0</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>43103.666662962962</v>
       </c>
@@ -2079,12 +2015,11 @@
       <c r="E66" s="3">
         <v>0</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>43103.70832957176</v>
       </c>
@@ -2098,12 +2033,11 @@
       <c r="E67" s="3">
         <v>0</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>43103.749996180559</v>
       </c>
@@ -2117,12 +2051,11 @@
       <c r="E68" s="3">
         <v>0</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>43103.79166278935</v>
       </c>
@@ -2136,12 +2069,11 @@
       <c r="E69" s="3">
         <v>0</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>43103.833329398149</v>
       </c>
@@ -2155,12 +2087,11 @@
       <c r="E70" s="3">
         <v>0</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>43103.874996006947</v>
       </c>
@@ -2174,12 +2105,11 @@
       <c r="E71" s="3">
         <v>0</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>43103.916662615738</v>
       </c>
@@ -2193,12 +2123,11 @@
       <c r="E72" s="3">
         <v>0</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>43103.958329224537</v>
       </c>
@@ -2213,12 +2142,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>43103.999995833336</v>
       </c>
@@ -2226,7 +2154,7 @@
         <v>2.99999999999996</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3">
         <f>0</f>
@@ -2236,12 +2164,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>43104.041662442127</v>
       </c>
@@ -2256,12 +2183,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>43104.083329050925</v>
       </c>
@@ -2276,12 +2202,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="H76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>43104.124995659724</v>
       </c>
@@ -2296,12 +2221,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="H77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>43104.166662268515</v>
       </c>
@@ -2316,12 +2240,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>43104.208328877314</v>
       </c>
@@ -2336,12 +2259,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="H79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>43104.249995486112</v>
       </c>
@@ -2356,12 +2278,11 @@
         <f>'Smart charging'!I5</f>
         <v>2.0320987654320986</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>43104.291662094911</v>
       </c>
@@ -2376,12 +2297,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>43104.333328703702</v>
       </c>
@@ -2396,12 +2316,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>43104.374995312501</v>
       </c>
@@ -2416,12 +2335,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="H83" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>43104.416661921299</v>
       </c>
@@ -2436,12 +2354,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="H84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>43104.458328530091</v>
       </c>
@@ -2456,12 +2373,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="H85" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>43104.499995138889</v>
       </c>
@@ -2476,12 +2392,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="H86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>43104.541661747688</v>
       </c>
@@ -2496,12 +2411,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>43104.583328356479</v>
       </c>
@@ -2516,12 +2430,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="H88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>43104.624994965277</v>
       </c>
@@ -2536,12 +2449,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="H89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>43104.666661574076</v>
       </c>
@@ -2556,12 +2468,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>43104.708328182867</v>
       </c>
@@ -2576,12 +2487,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>43104.749994791666</v>
       </c>
@@ -2596,12 +2506,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>43104.791661400464</v>
       </c>
@@ -2616,12 +2525,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="H93" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>43104.833328009256</v>
       </c>
@@ -2636,12 +2544,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="H94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>43104.874994618054</v>
       </c>
@@ -2656,12 +2563,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="H95" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>43104.916661226853</v>
       </c>
@@ -2676,12 +2582,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="H96" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>43104.958327835651</v>
       </c>
@@ -2696,12 +2601,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="H97" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>43104.999994444443</v>
       </c>
@@ -2709,7 +2613,7 @@
         <v>3.9999999999999498</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D98" s="3">
         <f>0</f>
@@ -2719,12 +2623,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="H98" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>43105.041661053241</v>
       </c>
@@ -2739,12 +2642,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F99" s="3"/>
-      <c r="H99" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>43105.08332766204</v>
       </c>
@@ -2759,12 +2661,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>43105.124994270831</v>
       </c>
@@ -2779,12 +2680,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>43105.166660879629</v>
       </c>
@@ -2799,12 +2699,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F102" s="3"/>
-      <c r="H102" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>43105.208327488428</v>
       </c>
@@ -2819,12 +2718,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F103" s="3"/>
-      <c r="H103" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>43105.249994097219</v>
       </c>
@@ -2839,12 +2737,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="H104" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>43105.291660706018</v>
       </c>
@@ -2859,12 +2756,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="H105" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>43105.333327314816</v>
       </c>
@@ -2879,12 +2775,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F106" s="3"/>
-      <c r="H106" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>43105.374993923608</v>
       </c>
@@ -2899,12 +2794,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="H107" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>43105.416660532406</v>
       </c>
@@ -2919,12 +2813,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F108" s="3"/>
-      <c r="H108" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>43105.458327141205</v>
       </c>
@@ -2939,12 +2832,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F109" s="3"/>
-      <c r="H109" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>43105.499993750003</v>
       </c>
@@ -2959,12 +2851,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F110" s="3"/>
-      <c r="H110" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>43105.541660358795</v>
       </c>
@@ -2979,12 +2870,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>43105.583326967593</v>
       </c>
@@ -2999,12 +2889,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>43105.624993576392</v>
       </c>
@@ -3019,12 +2908,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>43105.666660185183</v>
       </c>
@@ -3039,12 +2927,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>43105.708326793982</v>
       </c>
@@ -3059,12 +2946,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>43105.74999340278</v>
       </c>
@@ -3079,12 +2965,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F116" s="3"/>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>43105.791660011571</v>
       </c>
@@ -3099,12 +2984,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F117" s="3"/>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>43105.83332662037</v>
       </c>
@@ -3119,12 +3003,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F118" s="3"/>
-      <c r="H118" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>43105.874993229168</v>
       </c>
@@ -3139,12 +3022,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="H119" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>43105.91665983796</v>
       </c>
@@ -3159,12 +3041,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="H120" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>43105.958326446758</v>
       </c>
@@ -3179,12 +3060,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="H121" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>43105.999993055557</v>
       </c>
@@ -3192,7 +3072,7 @@
         <v>4.9999999999999298</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D122" s="3">
         <f>0</f>
@@ -3202,12 +3082,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="H122" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>43106.041659664355</v>
       </c>
@@ -3222,12 +3101,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F123" s="3"/>
-      <c r="H123" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>43106.083326273147</v>
       </c>
@@ -3242,12 +3120,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="H124" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>43106.124992881945</v>
       </c>
@@ -3262,12 +3139,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F125" s="3"/>
-      <c r="H125" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>43106.166659490744</v>
       </c>
@@ -3282,12 +3158,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F126" s="3"/>
-      <c r="H126" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>43106.208326099535</v>
       </c>
@@ -3302,12 +3177,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F127" s="3"/>
-      <c r="H127" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>43106.249992708334</v>
       </c>
@@ -3322,12 +3196,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F128" s="3"/>
-      <c r="H128" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>43106.291659317132</v>
       </c>
@@ -3342,12 +3215,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F129" s="3"/>
-      <c r="H129" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>43106.333325925923</v>
       </c>
@@ -3362,12 +3234,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F130" s="3"/>
-      <c r="H130" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>43106.374992534722</v>
       </c>
@@ -3382,12 +3253,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F131" s="3"/>
-      <c r="H131" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>43106.416659143521</v>
       </c>
@@ -3402,12 +3272,11 @@
         <f>'Smart charging'!I8</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F132" s="3"/>
-      <c r="H132" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>43106.458325752312</v>
       </c>
@@ -3422,12 +3291,11 @@
         <f>'Smart charging'!I8</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F133" s="3"/>
-      <c r="H133" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>43106.49999236111</v>
       </c>
@@ -3442,12 +3310,11 @@
         <f>'Smart charging'!I8</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F134" s="3"/>
-      <c r="H134" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>43106.541658969909</v>
       </c>
@@ -3462,12 +3329,11 @@
         <f>'Smart charging'!I8</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F135" s="3"/>
-      <c r="H135" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>43106.5833255787</v>
       </c>
@@ -3482,12 +3348,11 @@
         <f>'Smart charging'!I8</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F136" s="3"/>
-      <c r="H136" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
         <v>43106.624992187499</v>
       </c>
@@ -3502,12 +3367,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F137" s="3"/>
-      <c r="H137" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>43106.666658796297</v>
       </c>
@@ -3522,12 +3386,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F138" s="3"/>
-      <c r="H138" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>43106.708325405096</v>
       </c>
@@ -3542,12 +3405,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F139" s="3"/>
-      <c r="H139" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>43106.749992013887</v>
       </c>
@@ -3562,12 +3424,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F140" s="3"/>
-      <c r="H140" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>43106.791658622686</v>
       </c>
@@ -3582,12 +3443,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F141" s="3"/>
-      <c r="H141" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>43106.833325231484</v>
       </c>
@@ -3602,12 +3462,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F142" s="3"/>
-      <c r="H142" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>43106.874991840275</v>
       </c>
@@ -3622,12 +3481,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F143" s="3"/>
-      <c r="H143" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>43106.916658449074</v>
       </c>
@@ -3642,12 +3500,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F144" s="3"/>
-      <c r="H144" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>43106.958325057873</v>
       </c>
@@ -3662,12 +3519,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F145" s="3"/>
-      <c r="H145" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>43106.999991666664</v>
       </c>
@@ -3675,7 +3531,7 @@
         <v>5.9999999999999103</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D146" s="3">
         <f>0</f>
@@ -3685,12 +3541,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F146" s="3"/>
-      <c r="H146" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>43107.041658275462</v>
       </c>
@@ -3705,12 +3560,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F147" s="3"/>
-      <c r="H147" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>43107.083324884261</v>
       </c>
@@ -3725,12 +3579,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F148" s="3"/>
-      <c r="H148" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>43107.124991493052</v>
       </c>
@@ -3745,12 +3598,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F149" s="3"/>
-      <c r="H149" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>43107.166658101851</v>
       </c>
@@ -3765,12 +3617,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F150" s="3"/>
-      <c r="H150" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>43107.208324710649</v>
       </c>
@@ -3785,12 +3636,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F151" s="3"/>
-      <c r="H151" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>43107.249991319448</v>
       </c>
@@ -3805,12 +3655,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F152" s="3"/>
-      <c r="H152" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>43107.291657928239</v>
       </c>
@@ -3825,12 +3674,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F153" s="3"/>
-      <c r="H153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>43107.333324537038</v>
       </c>
@@ -3845,12 +3693,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F154" s="3"/>
-      <c r="H154" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>43107.374991145836</v>
       </c>
@@ -3865,12 +3712,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F155" s="3"/>
-      <c r="H155" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>43107.416657754628</v>
       </c>
@@ -3885,12 +3731,11 @@
         <f>'Smart charging'!I9</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F156" s="3"/>
-      <c r="H156" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>43107.458324363426</v>
       </c>
@@ -3905,12 +3750,11 @@
         <f>'Smart charging'!I9</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F157" s="3"/>
-      <c r="H157" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>43107.499990972225</v>
       </c>
@@ -3925,12 +3769,11 @@
         <f>'Smart charging'!I9</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F158" s="3"/>
-      <c r="H158" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>43107.541657581016</v>
       </c>
@@ -3945,12 +3788,11 @@
         <f>'Smart charging'!I9</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F159" s="3"/>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>43107.583324189814</v>
       </c>
@@ -3965,12 +3807,11 @@
         <f>'Smart charging'!I9</f>
         <v>2.3707818930041151</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="H160" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>43107.624990798613</v>
       </c>
@@ -3985,12 +3826,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F161" s="3"/>
-      <c r="H161" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>43107.666657407404</v>
       </c>
@@ -4005,12 +3845,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F162" s="3"/>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>43107.708324016203</v>
       </c>
@@ -4025,12 +3864,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F163" s="3"/>
-      <c r="H163" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>43107.749990625001</v>
       </c>
@@ -4045,12 +3883,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="H164" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>43107.7916572338</v>
       </c>
@@ -4065,12 +3902,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F165" s="3"/>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>43107.833323842591</v>
       </c>
@@ -4085,12 +3921,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F166" s="3"/>
-      <c r="H166" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>43107.87499045139</v>
       </c>
@@ -4105,12 +3940,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F167" s="3"/>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>43107.916657060188</v>
       </c>
@@ -4125,12 +3959,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F168" s="3"/>
-      <c r="H168" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>43107.95832366898</v>
       </c>
@@ -4145,8 +3978,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F169" s="3"/>
-      <c r="H169" s="3">
+      <c r="G169" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4181,54 +4013,54 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <f>K2*P2</f>
@@ -4289,7 +4121,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <f>D2+((F2*I2)/N2)*K2</f>
@@ -4312,7 +4144,7 @@
         <v>3.8445111778445109</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G6" si="0">18/24</f>
+        <f t="shared" ref="G3:G5" si="0">18/24</f>
         <v>0.75</v>
       </c>
       <c r="H3" s="7">
@@ -4326,7 +4158,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
         <f>D3+((F3*I3)/N2)*K2</f>
@@ -4361,12 +4193,12 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
         <f>D4+((F4*I4)/N2)*K2</f>
@@ -4407,7 +4239,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
         <f>D5+((F5*I5)/N2)*K2</f>
@@ -4454,7 +4286,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <f>(D6)+((F6*I6)/N2)*K2</f>
@@ -4491,7 +4323,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <f>D8+((F8*I8)/N2)*K2</f>
@@ -4566,7 +4398,7 @@
   <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4589,54 +4421,54 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <f>K2*P2</f>
@@ -4697,7 +4529,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <f>D2+((F2*I2)/N2)*K2</f>
@@ -4734,7 +4566,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <f>D3+((F3*I3)/N2)*K2</f>
@@ -4769,12 +4601,12 @@
         <v>2.0320987654320986</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <f>D4+((F4*I4)/N2)*K2</f>
@@ -4815,7 +4647,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <f>D5+((F5*I5)/N2)*K2</f>
@@ -4861,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <f>D6+((F6*I6)/N2)*K2</f>
@@ -4899,7 +4731,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <f>D8</f>
@@ -4950,10 +4782,10 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -4972,17 +4804,21 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <f>7</f>
         <v>7</v>
       </c>
+      <c r="C17" t="e" cm="1">
+        <f t="array" ref="C17">SIN(PI)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4998,6 +4834,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
+      <c r="C19" t="e" cm="1">
+        <f t="array" ref="C19">SIN(PI)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
@@ -5594,21 +5434,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C41F1D-362D-9D40-9C19-D9939CCD42B4}">
   <dimension ref="D7:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>82.3</v>
@@ -5616,42 +5456,42 @@
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <f>0.8*G7</f>
         <v>65.84</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <f>0.2*G7</f>
         <v>16.46</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <f>E8-E9-E10</f>
@@ -5664,7 +5504,7 @@
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <f>G7-E11</f>
@@ -5673,18 +5513,18 @@
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>3.7</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <f>E13/E14</f>
@@ -5693,10 +5533,10 @@
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/EV Calculation.xlsx
+++ b/data/EV Calculation.xlsx
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03086007-FF13-4F03-A8AB-B476DD27065A}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/EV Calculation.xlsx
+++ b/data/EV Calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1947" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCECD7D9-6E77-40DE-B4E2-CEBD8664E8B9}"/>
+  <xr:revisionPtr revIDLastSave="1948" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B038739-3595-CA4D-960B-9BF0033647A1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="53">
   <si>
     <t>Datetime</t>
   </si>
@@ -196,6 +195,9 @@
   <si>
     <t>1.9</t>
   </si>
+  <si>
+    <t>70/405*82,3</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +207,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,7 +296,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -331,7 +333,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2451,7 +2453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="835828743"/>
@@ -2510,7 +2512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="835826695"/>
@@ -2552,7 +2554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2582,7 +2584,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2596,7 +2598,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2633,7 +2635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4753,7 +4755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114970120"/>
@@ -4812,7 +4814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114968072"/>
@@ -4854,7 +4856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4884,7 +4886,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6408,21 +6410,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03086007-FF13-4F03-A8AB-B476DD27065A}">
   <dimension ref="A1:G905"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>43101</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>43101.010416666664</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>43101.02083321759</v>
       </c>
@@ -6520,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>43101.031249826388</v>
       </c>
@@ -6545,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>43101.041666435187</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>43101.052083043978</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>43101.062499652777</v>
       </c>
@@ -6620,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>43101.072916261575</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>43101.083332870374</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>43101.093749479165</v>
       </c>
@@ -6695,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>43101.104166087964</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>43101.114582696762</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>43101.124999305554</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>43101.135415914352</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>43101.145832523151</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>43101.156249131942</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>43101.16666574074</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>43101.177082349539</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>43101.18749895833</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>43101.197915567129</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>43101.208332175927</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>43101.218748784719</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>43101.229165393517</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>43101.239582002316</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>43101.249998611114</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>43101.260415219906</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>43101.270831828704</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>43101.281248437503</v>
       </c>
@@ -7145,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>43101.291665046294</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>43101.302081655092</v>
       </c>
@@ -7195,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>43101.312498263891</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>43101.322914872682</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>43101.333331481481</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>43101.343748090279</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>43101.354164699071</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>43101.364581307869</v>
       </c>
@@ -7345,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>43101.374997916668</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>43101.385414525466</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>43101.395831134258</v>
       </c>
@@ -7420,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>43101.406247743056</v>
       </c>
@@ -7445,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>43101.416664351855</v>
       </c>
@@ -7470,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>43101.427080960646</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43101.437497569445</v>
       </c>
@@ -7520,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>43101.447914178243</v>
       </c>
@@ -7545,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>43101.458330787034</v>
       </c>
@@ -7570,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>43101.468747395833</v>
       </c>
@@ -7595,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>43101.479164004631</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>43101.489580613423</v>
       </c>
@@ -7645,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>43101.499997222221</v>
       </c>
@@ -7670,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>43101.51041383102</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>43101.520830439818</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>43101.53124704861</v>
       </c>
@@ -7745,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>43101.541663657408</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>43101.552080266207</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>43101.562496874998</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>43101.572913483797</v>
       </c>
@@ -7833,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>43101.583330092595</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>43101.593746701386</v>
       </c>
@@ -7877,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>43101.604163310185</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>43101.614579918984</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>43101.624996527775</v>
       </c>
@@ -7943,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>43101.635413136573</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>43101.645829745372</v>
       </c>
@@ -7987,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>43101.656246354163</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>43101.666662962962</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>43101.67707957176</v>
       </c>
@@ -8053,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>43101.687496180559</v>
       </c>
@@ -8075,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>43101.69791278935</v>
       </c>
@@ -8097,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>43101.708329398149</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>43101.718746006947</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>43101.729162615738</v>
       </c>
@@ -8163,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>43101.739579224537</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>43101.749995833336</v>
       </c>
@@ -8207,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>43101.760412442127</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>43101.770829050925</v>
       </c>
@@ -8251,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>43101.781245659724</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>43101.791662268515</v>
       </c>
@@ -8295,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>43101.802078877314</v>
       </c>
@@ -8317,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>43101.812495486112</v>
       </c>
@@ -8339,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>43101.822912094911</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>43101.833328703702</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>43101.843745312501</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>43101.854161921299</v>
       </c>
@@ -8427,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>43101.864578530091</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>43101.874995138889</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>43101.885411747688</v>
       </c>
@@ -8493,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>43101.895828356479</v>
       </c>
@@ -8515,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>43101.906244965277</v>
       </c>
@@ -8537,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>43101.916661574076</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>43101.927078182867</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>43101.937494791666</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>43101.947911400464</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>43101.958328009256</v>
       </c>
@@ -8647,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>43101.968744618054</v>
       </c>
@@ -8669,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>43101.979161226853</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>43101.989577835651</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>43102</v>
       </c>
@@ -8735,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>43102.010416666664</v>
       </c>
@@ -8757,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>43102.02083321759</v>
       </c>
@@ -8779,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>43102.031249826388</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>43102.041666435187</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>43102.052083043978</v>
       </c>
@@ -8845,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>43102.062499652777</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>43102.072916261575</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>43102.083332870374</v>
       </c>
@@ -8911,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>43102.093749479165</v>
       </c>
@@ -8933,7 +8935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>43102.104166087964</v>
       </c>
@@ -8955,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>43102.114582696762</v>
       </c>
@@ -8977,7 +8979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>43102.124999305554</v>
       </c>
@@ -8999,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>43102.135415914352</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>43102.145832523151</v>
       </c>
@@ -9043,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>43102.156249131942</v>
       </c>
@@ -9065,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>43102.16666574074</v>
       </c>
@@ -9087,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>43102.177082349539</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>43102.18749895833</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>43102.197915567129</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>43102.208332175927</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>43102.218748784719</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>43102.229165393517</v>
       </c>
@@ -9219,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>43102.239582002316</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>43102.249998611114</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>43102.260415219906</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>43102.270831828704</v>
       </c>
@@ -9307,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>43102.281248437503</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>43102.291665046294</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>43102.302081655092</v>
       </c>
@@ -9373,7 +9375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>43102.312498263891</v>
       </c>
@@ -9395,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>43102.322914872682</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>43102.333331481481</v>
       </c>
@@ -9439,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>43102.343748090279</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>43102.354164699071</v>
       </c>
@@ -9483,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>43102.364581307869</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="11">
         <v>43102.374997916668</v>
       </c>
@@ -9527,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>43102.385414525466</v>
       </c>
@@ -9549,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="11">
         <v>43102.395831134258</v>
       </c>
@@ -9571,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
         <v>43102.406247743056</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>43102.416664351855</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>43102.427080960646</v>
       </c>
@@ -9637,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>43102.437497569445</v>
       </c>
@@ -9659,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>43102.447914178243</v>
       </c>
@@ -9681,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>43102.458330787034</v>
       </c>
@@ -9703,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>43102.468747395833</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>43102.479164004631</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>43102.489580613423</v>
       </c>
@@ -9769,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>43102.499997222221</v>
       </c>
@@ -9791,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>43102.51041383102</v>
       </c>
@@ -9813,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>43102.520830439818</v>
       </c>
@@ -9835,7 +9837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>43102.53124704861</v>
       </c>
@@ -9857,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>43102.541663657408</v>
       </c>
@@ -9879,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>43102.552080266207</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>43102.562496874998</v>
       </c>
@@ -9923,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>43102.572913483797</v>
       </c>
@@ -9945,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>43102.583330092595</v>
       </c>
@@ -9967,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>43102.593746701386</v>
       </c>
@@ -9989,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>43102.604163310185</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>43102.614579918984</v>
       </c>
@@ -10033,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>43102.624996527775</v>
       </c>
@@ -10055,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>43102.635413136573</v>
       </c>
@@ -10077,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>43102.645829745372</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>43102.656246354163</v>
       </c>
@@ -10121,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>43102.666662962962</v>
       </c>
@@ -10143,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>43102.67707957176</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>43102.687496180559</v>
       </c>
@@ -10187,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>43102.69791278935</v>
       </c>
@@ -10209,7 +10211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>43102.708329398149</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>43102.718746006947</v>
       </c>
@@ -10253,7 +10255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>43102.729162615738</v>
       </c>
@@ -10275,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>43102.739579224537</v>
       </c>
@@ -10297,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="11">
         <v>43102.749995833336</v>
       </c>
@@ -10316,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>43102.760412442127</v>
       </c>
@@ -10335,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>43102.770829050925</v>
       </c>
@@ -10354,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>43102.781245659724</v>
       </c>
@@ -10373,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>43102.791662268515</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="11">
         <v>43102.802078877314</v>
       </c>
@@ -10411,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>43102.812495486112</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>43102.822912094911</v>
       </c>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>43102.833328703702</v>
       </c>
@@ -10468,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>43102.843745312501</v>
       </c>
@@ -10487,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="11">
         <v>43102.854161921299</v>
       </c>
@@ -10506,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="11">
         <v>43102.864578530091</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="11">
         <v>43102.874995138889</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="11">
         <v>43102.885411747688</v>
       </c>
@@ -10563,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>43102.895828356479</v>
       </c>
@@ -10582,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="11">
         <v>43102.906244965277</v>
       </c>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="11">
         <v>43102.916661574076</v>
       </c>
@@ -10620,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="11">
         <v>43102.927078182867</v>
       </c>
@@ -10639,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="11">
         <v>43102.937494791666</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="11">
         <v>43102.947911400464</v>
       </c>
@@ -10677,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="11">
         <v>43102.958328009256</v>
       </c>
@@ -10696,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="11">
         <v>43102.968744618054</v>
       </c>
@@ -10715,7 +10717,7 @@
         <v>0.35739209420974899</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="11">
         <v>43102.979161226853</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>0.71028977547108729</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="11">
         <v>43102.989577835651</v>
       </c>
@@ -10753,7 +10755,7 @@
         <v>1.0542551506861495</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="11">
         <v>43103</v>
       </c>
@@ -10772,7 +10774,7 @@
         <v>1.3849626556882468</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="11">
         <v>43103.010416666664</v>
       </c>
@@ -10791,7 +10793,7 @@
         <v>1.6982534517210142</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="11">
         <v>43103.02083321759</v>
       </c>
@@ -10810,7 +10812,7 @@
         <v>1.9901877252487852</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="11">
         <v>43103.031249826388</v>
       </c>
@@ -10829,7 +10831,7 @@
         <v>2.2570942333977375</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="11">
         <v>43103.041666435187</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>2.495616471965135</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="11">
         <v>43103.052083043978</v>
       </c>
@@ -10867,7 +10869,7 @@
         <v>2.7027548854071659</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="11">
         <v>43103.062499652777</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>2.8759045879902905</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="11">
         <v>43103.072916261575</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>3.0128881217407271</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="11">
         <v>43103.083332870374</v>
       </c>
@@ -10924,7 +10926,7 @@
         <v>3.1119828392418674</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="11">
         <v>43103.093749479165</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>3.1719425669250403</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="11">
         <v>43103.104166087964</v>
       </c>
@@ -10962,7 +10964,7 @@
         <v>3.1920132764251847</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="11">
         <v>43103.114582696762</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>3.1719425669250403</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="11">
         <v>43103.124999305554</v>
       </c>
@@ -11000,7 +11002,7 @@
         <v>3.1119828392418674</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="11">
         <v>43103.135415914352</v>
       </c>
@@ -11019,7 +11021,7 @@
         <v>3.0128881217407271</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="11">
         <v>43103.145832523151</v>
       </c>
@@ -11038,7 +11040,7 @@
         <v>2.8759045879902905</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="11">
         <v>43103.156249131942</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>2.7027548854071664</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="11">
         <v>43103.16666574074</v>
       </c>
@@ -11076,7 +11078,7 @@
         <v>2.4956164719651355</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="11">
         <v>43103.177082349539</v>
       </c>
@@ -11095,7 +11097,7 @@
         <v>2.257094233397738</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="11">
         <v>43103.18749895833</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>1.9901877252487854</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="11">
         <v>43103.197915567129</v>
       </c>
@@ -11133,7 +11135,7 @@
         <v>1.6982534517210144</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="11">
         <v>43103.208332175927</v>
       </c>
@@ -11152,7 +11154,7 @@
         <v>1.3849626556882471</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="11">
         <v>43103.218748784719</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>1.0542551506861499</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="11">
         <v>43103.229165393517</v>
       </c>
@@ -11190,7 +11192,7 @@
         <v>0.71028977547108763</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="11">
         <v>43103.239582002316</v>
       </c>
@@ -11209,7 +11211,7 @@
         <v>0.35739209420974943</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="11">
         <v>43103.249998611114</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="11">
         <v>43103.260415219906</v>
       </c>
@@ -11247,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="11">
         <v>43103.270831828704</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="11">
         <v>43103.281248437503</v>
       </c>
@@ -11285,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="11">
         <v>43103.291665046294</v>
       </c>
@@ -11304,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="11">
         <v>43103.302081655092</v>
       </c>
@@ -11323,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="11">
         <v>43103.312498263891</v>
       </c>
@@ -11342,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="11">
         <v>43103.322914872682</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="11">
         <v>43103.333331481481</v>
       </c>
@@ -11380,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="11">
         <v>43103.343748090279</v>
       </c>
@@ -11399,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="11">
         <v>43103.354164699071</v>
       </c>
@@ -11418,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="11">
         <v>43103.364581307869</v>
       </c>
@@ -11437,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="11">
         <v>43103.374997916668</v>
       </c>
@@ -11456,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="11">
         <v>43103.385414525466</v>
       </c>
@@ -11475,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="11">
         <v>43103.395831134258</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="11">
         <v>43103.406247743056</v>
       </c>
@@ -11513,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="11">
         <v>43103.416664351855</v>
       </c>
@@ -11532,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="11">
         <v>43103.427080960646</v>
       </c>
@@ -11551,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="11">
         <v>43103.437497569445</v>
       </c>
@@ -11570,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="11">
         <v>43103.447914178243</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="11">
         <v>43103.458330787034</v>
       </c>
@@ -11608,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="11">
         <v>43103.468747395833</v>
       </c>
@@ -11627,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="11">
         <v>43103.479164004631</v>
       </c>
@@ -11646,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="11">
         <v>43103.489580613423</v>
       </c>
@@ -11665,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="11">
         <v>43103.499997222221</v>
       </c>
@@ -11684,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="11">
         <v>43103.51041383102</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="11">
         <v>43103.520830439818</v>
       </c>
@@ -11722,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="11">
         <v>43103.53124704861</v>
       </c>
@@ -11741,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="11">
         <v>43103.541663657408</v>
       </c>
@@ -11760,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="11">
         <v>43103.552080266207</v>
       </c>
@@ -11779,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="11">
         <v>43103.562496874998</v>
       </c>
@@ -11798,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="11">
         <v>43103.572913483797</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="11">
         <v>43103.583330092595</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="11">
         <v>43103.593746701386</v>
       </c>
@@ -11855,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="11">
         <v>43103.604163310185</v>
       </c>
@@ -11874,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="11">
         <v>43103.614579918984</v>
       </c>
@@ -11893,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="11">
         <v>43103.624996527775</v>
       </c>
@@ -11912,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="11">
         <v>43103.635413136573</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="11">
         <v>43103.645829745372</v>
       </c>
@@ -11950,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="11">
         <v>43103.656246354163</v>
       </c>
@@ -11969,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="11">
         <v>43103.666662962962</v>
       </c>
@@ -11988,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="11">
         <v>43103.67707957176</v>
       </c>
@@ -12007,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="11">
         <v>43103.687496180559</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="11">
         <v>43103.69791278935</v>
       </c>
@@ -12045,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="11">
         <v>43103.708329398149</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="11">
         <v>43103.718746006947</v>
       </c>
@@ -12083,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="11">
         <v>43103.729162615738</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="11">
         <v>43103.739579224537</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="11">
         <v>43103.749995833336</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="11">
         <v>43103.760412442127</v>
       </c>
@@ -12159,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="11">
         <v>43103.770829050925</v>
       </c>
@@ -12178,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="11">
         <v>43103.781245659724</v>
       </c>
@@ -12197,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="11">
         <v>43103.791662268515</v>
       </c>
@@ -12216,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="11">
         <v>43103.802078877314</v>
       </c>
@@ -12235,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="11">
         <v>43103.812495486112</v>
       </c>
@@ -12254,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="11">
         <v>43103.822912094911</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="11">
         <v>43103.833328703702</v>
       </c>
@@ -12292,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="11">
         <v>43103.843745312501</v>
       </c>
@@ -12311,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="11">
         <v>43103.854161921299</v>
       </c>
@@ -12330,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="11">
         <v>43103.864578530091</v>
       </c>
@@ -12349,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="11">
         <v>43103.874995138889</v>
       </c>
@@ -12368,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="11">
         <v>43103.885411747688</v>
       </c>
@@ -12387,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="11">
         <v>43103.895828356479</v>
       </c>
@@ -12406,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="11">
         <v>43103.906244965277</v>
       </c>
@@ -12425,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="11">
         <v>43103.916661574076</v>
       </c>
@@ -12444,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="11">
         <v>43103.927078182867</v>
       </c>
@@ -12463,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="11">
         <v>43103.937494791666</v>
       </c>
@@ -12482,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="11">
         <v>43103.947911400464</v>
       </c>
@@ -12501,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="11">
         <v>43103.958328009256</v>
       </c>
@@ -12520,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="11">
         <v>43103.968744618054</v>
       </c>
@@ -12539,7 +12541,7 @@
         <v>0.35739209420974899</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="11">
         <v>43103.979161226853</v>
       </c>
@@ -12558,7 +12560,7 @@
         <v>0.71028977547108729</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="11">
         <v>43103.989577835651</v>
       </c>
@@ -12577,7 +12579,7 @@
         <v>1.0542551506861495</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="11">
         <v>43104</v>
       </c>
@@ -12596,7 +12598,7 @@
         <v>1.3849626556882468</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="11">
         <v>43104.010416666664</v>
       </c>
@@ -12615,7 +12617,7 @@
         <v>1.6982534517210142</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="11">
         <v>43104.02083321759</v>
       </c>
@@ -12634,7 +12636,7 @@
         <v>1.9901877252487852</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="11">
         <v>43104.031249826388</v>
       </c>
@@ -12653,7 +12655,7 @@
         <v>2.2570942333977375</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="11">
         <v>43104.041666435187</v>
       </c>
@@ -12672,7 +12674,7 @@
         <v>2.495616471965135</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="11">
         <v>43104.052083043978</v>
       </c>
@@ -12691,7 +12693,7 @@
         <v>2.7027548854071659</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="11">
         <v>43104.062499652777</v>
       </c>
@@ -12710,7 +12712,7 @@
         <v>2.8759045879902905</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="11">
         <v>43104.072916261575</v>
       </c>
@@ -12729,7 +12731,7 @@
         <v>3.0128881217407271</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="11">
         <v>43104.083332870374</v>
       </c>
@@ -12748,7 +12750,7 @@
         <v>3.1119828392418674</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="11">
         <v>43104.093749479165</v>
       </c>
@@ -12767,7 +12769,7 @@
         <v>3.1719425669250403</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="11">
         <v>43104.104166087964</v>
       </c>
@@ -12786,7 +12788,7 @@
         <v>3.1920132764251847</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="11">
         <v>43104.114582696762</v>
       </c>
@@ -12805,7 +12807,7 @@
         <v>3.1719425669250403</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="11">
         <v>43104.124999305554</v>
       </c>
@@ -12824,7 +12826,7 @@
         <v>3.1119828392418674</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="11">
         <v>43104.135415914352</v>
       </c>
@@ -12843,7 +12845,7 @@
         <v>3.0128881217407271</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="11">
         <v>43104.145832523151</v>
       </c>
@@ -12862,7 +12864,7 @@
         <v>2.8759045879902905</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="11">
         <v>43104.156249131942</v>
       </c>
@@ -12881,7 +12883,7 @@
         <v>2.7027548854071664</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="11">
         <v>43104.16666574074</v>
       </c>
@@ -12900,7 +12902,7 @@
         <v>2.4956164719651355</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="11">
         <v>43104.177082349539</v>
       </c>
@@ -12919,7 +12921,7 @@
         <v>2.257094233397738</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="11">
         <v>43104.18749895833</v>
       </c>
@@ -12938,7 +12940,7 @@
         <v>1.9901877252487854</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="11">
         <v>43104.197915567129</v>
       </c>
@@ -12957,7 +12959,7 @@
         <v>1.6982534517210144</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="11">
         <v>43104.208332175927</v>
       </c>
@@ -12976,7 +12978,7 @@
         <v>1.3849626556882471</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="11">
         <v>43104.218748784719</v>
       </c>
@@ -12995,7 +12997,7 @@
         <v>1.0542551506861499</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="11">
         <v>43104.229165393517</v>
       </c>
@@ -13014,7 +13016,7 @@
         <v>0.71028977547108763</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="11">
         <v>43104.239582002316</v>
       </c>
@@ -13033,7 +13035,7 @@
         <v>0.35739209420974943</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="11">
         <v>43104.249998611114</v>
       </c>
@@ -13052,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="11">
         <v>43104.260415219906</v>
       </c>
@@ -13071,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="11">
         <v>43104.270831828704</v>
       </c>
@@ -13090,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="11">
         <v>43104.281248437503</v>
       </c>
@@ -13109,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="11">
         <v>43104.291665046294</v>
       </c>
@@ -13128,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="11">
         <v>43104.302081655092</v>
       </c>
@@ -13147,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="11">
         <v>43104.312498263891</v>
       </c>
@@ -13166,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="11">
         <v>43104.322914872682</v>
       </c>
@@ -13185,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="11">
         <v>43104.333331481481</v>
       </c>
@@ -13204,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="11">
         <v>43104.343748090279</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="11">
         <v>43104.354164699071</v>
       </c>
@@ -13242,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="11">
         <v>43104.364581307869</v>
       </c>
@@ -13261,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="11">
         <v>43104.374997916668</v>
       </c>
@@ -13280,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="11">
         <v>43104.385414525466</v>
       </c>
@@ -13299,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="11">
         <v>43104.395831134258</v>
       </c>
@@ -13318,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="11">
         <v>43104.406247743056</v>
       </c>
@@ -13337,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="11">
         <v>43104.416664351855</v>
       </c>
@@ -13356,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="11">
         <v>43104.427080960646</v>
       </c>
@@ -13375,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="11">
         <v>43104.437497569445</v>
       </c>
@@ -13394,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="11">
         <v>43104.447914178243</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="11">
         <v>43104.458330787034</v>
       </c>
@@ -13432,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="11">
         <v>43104.468747395833</v>
       </c>
@@ -13451,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="11">
         <v>43104.479164004631</v>
       </c>
@@ -13470,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="11">
         <v>43104.489580613423</v>
       </c>
@@ -13489,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="11">
         <v>43104.499997222221</v>
       </c>
@@ -13508,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="11">
         <v>43104.51041383102</v>
       </c>
@@ -13527,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="11">
         <v>43104.520830439818</v>
       </c>
@@ -13546,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="11">
         <v>43104.53124704861</v>
       </c>
@@ -13565,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="11">
         <v>43104.541663657408</v>
       </c>
@@ -13584,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="11">
         <v>43104.552080266207</v>
       </c>
@@ -13603,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="11">
         <v>43104.562496874998</v>
       </c>
@@ -13622,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="11">
         <v>43104.572913483797</v>
       </c>
@@ -13641,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="11">
         <v>43104.583330092595</v>
       </c>
@@ -13660,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="11">
         <v>43104.593746701386</v>
       </c>
@@ -13679,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="11">
         <v>43104.604163310185</v>
       </c>
@@ -13698,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="11">
         <v>43104.614579918984</v>
       </c>
@@ -13717,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="11">
         <v>43104.624996527775</v>
       </c>
@@ -13736,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="11">
         <v>43104.635413136573</v>
       </c>
@@ -13755,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="11">
         <v>43104.645829745372</v>
       </c>
@@ -13774,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="11">
         <v>43104.656246354163</v>
       </c>
@@ -13793,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="11">
         <v>43104.666662962962</v>
       </c>
@@ -13812,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="11">
         <v>43104.67707957176</v>
       </c>
@@ -13831,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="11">
         <v>43104.687496180559</v>
       </c>
@@ -13850,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="11">
         <v>43104.69791278935</v>
       </c>
@@ -13869,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="11">
         <v>43104.708329398149</v>
       </c>
@@ -13888,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="11">
         <v>43104.718746006947</v>
       </c>
@@ -13907,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="11">
         <v>43104.729162615738</v>
       </c>
@@ -13926,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="11">
         <v>43104.739579224537</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="11">
         <v>43104.749995833336</v>
       </c>
@@ -13964,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="11">
         <v>43104.760412442127</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="11">
         <v>43104.770829050925</v>
       </c>
@@ -14002,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="11">
         <v>43104.781245659724</v>
       </c>
@@ -14021,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="11">
         <v>43104.791662268515</v>
       </c>
@@ -14040,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="11">
         <v>43104.802078877314</v>
       </c>
@@ -14059,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="11">
         <v>43104.812495486112</v>
       </c>
@@ -14078,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="11">
         <v>43104.822912094911</v>
       </c>
@@ -14097,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="11">
         <v>43104.833328703702</v>
       </c>
@@ -14116,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="11">
         <v>43104.843745312501</v>
       </c>
@@ -14135,7 +14137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="11">
         <v>43104.854161921299</v>
       </c>
@@ -14154,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="11">
         <v>43104.864578530091</v>
       </c>
@@ -14173,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="11">
         <v>43104.874995138889</v>
       </c>
@@ -14192,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="11">
         <v>43104.885411747688</v>
       </c>
@@ -14211,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="11">
         <v>43104.895828356479</v>
       </c>
@@ -14230,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="11">
         <v>43104.906244965277</v>
       </c>
@@ -14249,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="11">
         <v>43104.916661574076</v>
       </c>
@@ -14268,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="11">
         <v>43104.927078182867</v>
       </c>
@@ -14287,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="11">
         <v>43104.937494791666</v>
       </c>
@@ -14306,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="11">
         <v>43104.947911400464</v>
       </c>
@@ -14325,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="11">
         <v>43104.958328009256</v>
       </c>
@@ -14344,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="11">
         <v>43104.968744618054</v>
       </c>
@@ -14363,7 +14365,7 @@
         <v>0.35739209420974899</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="11">
         <v>43104.979161226853</v>
       </c>
@@ -14382,7 +14384,7 @@
         <v>0.71028977547108729</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="11">
         <v>43104.989577835651</v>
       </c>
@@ -14401,7 +14403,7 @@
         <v>1.0542551506861495</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="11">
         <v>43105</v>
       </c>
@@ -14420,7 +14422,7 @@
         <v>1.3849626556882468</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="11">
         <v>43105.010416666664</v>
       </c>
@@ -14439,7 +14441,7 @@
         <v>1.6982534517210142</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="11">
         <v>43105.02083321759</v>
       </c>
@@ -14458,7 +14460,7 @@
         <v>1.9901877252487852</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="11">
         <v>43105.031249826388</v>
       </c>
@@ -14477,7 +14479,7 @@
         <v>2.2570942333977375</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="11">
         <v>43105.041666435187</v>
       </c>
@@ -14496,7 +14498,7 @@
         <v>2.495616471965135</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="11">
         <v>43105.052083043978</v>
       </c>
@@ -14515,7 +14517,7 @@
         <v>2.7027548854071659</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="11">
         <v>43105.062499652777</v>
       </c>
@@ -14534,7 +14536,7 @@
         <v>2.8759045879902905</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="11">
         <v>43105.072916261575</v>
       </c>
@@ -14553,7 +14555,7 @@
         <v>3.0128881217407271</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="11">
         <v>43105.083332870374</v>
       </c>
@@ -14572,7 +14574,7 @@
         <v>3.1119828392418674</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="11">
         <v>43105.093749479165</v>
       </c>
@@ -14591,7 +14593,7 @@
         <v>3.1719425669250403</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="11">
         <v>43105.104166087964</v>
       </c>
@@ -14610,7 +14612,7 @@
         <v>3.1920132764251847</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="11">
         <v>43105.114582696762</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>3.1719425669250403</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="11">
         <v>43105.124999305554</v>
       </c>
@@ -14648,7 +14650,7 @@
         <v>3.1119828392418674</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="11">
         <v>43105.135415914352</v>
       </c>
@@ -14667,7 +14669,7 @@
         <v>3.0128881217407271</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="11">
         <v>43105.145832523151</v>
       </c>
@@ -14686,7 +14688,7 @@
         <v>2.8759045879902905</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="11">
         <v>43105.156249131942</v>
       </c>
@@ -14705,7 +14707,7 @@
         <v>2.7027548854071664</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="11">
         <v>43105.16666574074</v>
       </c>
@@ -14724,7 +14726,7 @@
         <v>2.4956164719651355</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="11">
         <v>43105.177082349539</v>
       </c>
@@ -14743,7 +14745,7 @@
         <v>2.257094233397738</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="11">
         <v>43105.18749895833</v>
       </c>
@@ -14762,7 +14764,7 @@
         <v>1.9901877252487854</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="11">
         <v>43105.197915567129</v>
       </c>
@@ -14781,7 +14783,7 @@
         <v>1.6982534517210144</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="11">
         <v>43105.208332175927</v>
       </c>
@@ -14800,7 +14802,7 @@
         <v>1.3849626556882471</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="11">
         <v>43105.218748784719</v>
       </c>
@@ -14819,7 +14821,7 @@
         <v>1.0542551506861499</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="11">
         <v>43105.229165393517</v>
       </c>
@@ -14838,7 +14840,7 @@
         <v>0.71028977547108763</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="11">
         <v>43105.239582002316</v>
       </c>
@@ -14857,7 +14859,7 @@
         <v>0.35739209420974943</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="11">
         <v>43105.249998611114</v>
       </c>
@@ -14876,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="11">
         <v>43105.260415219906</v>
       </c>
@@ -14895,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="11">
         <v>43105.270831828704</v>
       </c>
@@ -14914,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="11">
         <v>43105.281248437503</v>
       </c>
@@ -14933,7 +14935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="11">
         <v>43105.291665046294</v>
       </c>
@@ -14952,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="11">
         <v>43105.302081655092</v>
       </c>
@@ -14971,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="11">
         <v>43105.312498263891</v>
       </c>
@@ -14990,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="11">
         <v>43105.322914872682</v>
       </c>
@@ -15009,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="11">
         <v>43105.333331481481</v>
       </c>
@@ -15028,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="11">
         <v>43105.343748090279</v>
       </c>
@@ -15047,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="11">
         <v>43105.354164699071</v>
       </c>
@@ -15066,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="11">
         <v>43105.364581307869</v>
       </c>
@@ -15085,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="11">
         <v>43105.374997916668</v>
       </c>
@@ -15104,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="11">
         <v>43105.385414525466</v>
       </c>
@@ -15123,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="11">
         <v>43105.395831134258</v>
       </c>
@@ -15142,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="11">
         <v>43105.406247743056</v>
       </c>
@@ -15161,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="11">
         <v>43105.416664351855</v>
       </c>
@@ -15180,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="11">
         <v>43105.427080960646</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="11">
         <v>43105.437497569445</v>
       </c>
@@ -15218,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="11">
         <v>43105.447914178243</v>
       </c>
@@ -15237,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="11">
         <v>43105.458330787034</v>
       </c>
@@ -15256,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="11">
         <v>43105.468747395833</v>
       </c>
@@ -15275,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="11">
         <v>43105.479164004631</v>
       </c>
@@ -15294,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="11">
         <v>43105.489580613423</v>
       </c>
@@ -15313,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="11">
         <v>43105.499997222221</v>
       </c>
@@ -15332,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="11">
         <v>43105.51041383102</v>
       </c>
@@ -15351,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="11">
         <v>43105.520830439818</v>
       </c>
@@ -15370,7 +15372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="11">
         <v>43105.53124704861</v>
       </c>
@@ -15389,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="11">
         <v>43105.541663657408</v>
       </c>
@@ -15408,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="11">
         <v>43105.552080266207</v>
       </c>
@@ -15427,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="11">
         <v>43105.562496874998</v>
       </c>
@@ -15446,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="11">
         <v>43105.572913483797</v>
       </c>
@@ -15465,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="11">
         <v>43105.583330092595</v>
       </c>
@@ -15484,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="11">
         <v>43105.593746701386</v>
       </c>
@@ -15503,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="11">
         <v>43105.604163310185</v>
       </c>
@@ -15522,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="11">
         <v>43105.614579918984</v>
       </c>
@@ -15541,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="11">
         <v>43105.624996527775</v>
       </c>
@@ -15560,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="11">
         <v>43105.635413136573</v>
       </c>
@@ -15579,7 +15581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="11">
         <v>43105.645829745372</v>
       </c>
@@ -15598,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="11">
         <v>43105.656246354163</v>
       </c>
@@ -15617,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="11">
         <v>43105.666662962962</v>
       </c>
@@ -15636,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="11">
         <v>43105.67707957176</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="11">
         <v>43105.687496180559</v>
       </c>
@@ -15674,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="11">
         <v>43105.69791278935</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="11">
         <v>43105.708329398149</v>
       </c>
@@ -15712,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" s="11">
         <v>43105.718746006947</v>
       </c>
@@ -15731,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="11">
         <v>43105.729162615738</v>
       </c>
@@ -15750,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="11">
         <v>43105.739579224537</v>
       </c>
@@ -15769,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="11">
         <v>43105.749995833336</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="11">
         <v>43105.760412442127</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" s="11">
         <v>43105.770829050925</v>
       </c>
@@ -15826,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="11">
         <v>43105.781245659724</v>
       </c>
@@ -15845,7 +15847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" s="11">
         <v>43105.791662268515</v>
       </c>
@@ -15864,7 +15866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="11">
         <v>43105.802078877314</v>
       </c>
@@ -15883,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" s="11">
         <v>43105.812495486112</v>
       </c>
@@ -15902,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="11">
         <v>43105.822912094911</v>
       </c>
@@ -15921,7 +15923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="11">
         <v>43105.833328703702</v>
       </c>
@@ -15940,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="11">
         <v>43105.843745312501</v>
       </c>
@@ -15959,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="11">
         <v>43105.854161921299</v>
       </c>
@@ -15978,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="11">
         <v>43105.864578530091</v>
       </c>
@@ -15997,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="11">
         <v>43105.874995138889</v>
       </c>
@@ -16016,7 +16018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="11">
         <v>43105.885411747688</v>
       </c>
@@ -16035,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="11">
         <v>43105.895828356479</v>
       </c>
@@ -16054,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="11">
         <v>43105.906244965277</v>
       </c>
@@ -16073,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="11">
         <v>43105.916661574076</v>
       </c>
@@ -16092,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="11">
         <v>43105.927078182867</v>
       </c>
@@ -16111,7 +16113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="11">
         <v>43105.937494791666</v>
       </c>
@@ -16130,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="11">
         <v>43105.947911400464</v>
       </c>
@@ -16149,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="11">
         <v>43105.958328009256</v>
       </c>
@@ -16168,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="11">
         <v>43105.968744618054</v>
       </c>
@@ -16187,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="11">
         <v>43105.979161226853</v>
       </c>
@@ -16206,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="11">
         <v>43105.989577835651</v>
       </c>
@@ -16225,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="11">
         <v>43106</v>
       </c>
@@ -16244,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="11">
         <v>43106.010416666664</v>
       </c>
@@ -16263,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="11">
         <v>43106.02083321759</v>
       </c>
@@ -16282,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="11">
         <v>43106.031249826388</v>
       </c>
@@ -16301,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="11">
         <v>43106.041666435187</v>
       </c>
@@ -16320,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="11">
         <v>43106.052083043978</v>
       </c>
@@ -16339,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="11">
         <v>43106.062499652777</v>
       </c>
@@ -16358,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="11">
         <v>43106.072916261575</v>
       </c>
@@ -16377,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="11">
         <v>43106.083332870374</v>
       </c>
@@ -16396,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="11">
         <v>43106.093749479165</v>
       </c>
@@ -16415,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="11">
         <v>43106.104166087964</v>
       </c>
@@ -16434,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="11">
         <v>43106.114582696762</v>
       </c>
@@ -16453,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="11">
         <v>43106.124999305554</v>
       </c>
@@ -16472,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="11">
         <v>43106.135415914352</v>
       </c>
@@ -16491,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="11">
         <v>43106.145832523151</v>
       </c>
@@ -16510,7 +16512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="11">
         <v>43106.156249131942</v>
       </c>
@@ -16529,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="11">
         <v>43106.16666574074</v>
       </c>
@@ -16548,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="11">
         <v>43106.177082349539</v>
       </c>
@@ -16567,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="11">
         <v>43106.18749895833</v>
       </c>
@@ -16586,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="11">
         <v>43106.197915567129</v>
       </c>
@@ -16605,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="11">
         <v>43106.208332175927</v>
       </c>
@@ -16624,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="11">
         <v>43106.218748784719</v>
       </c>
@@ -16643,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="11">
         <v>43106.229165393517</v>
       </c>
@@ -16662,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="11">
         <v>43106.239582002316</v>
       </c>
@@ -16681,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="11">
         <v>43106.249998611114</v>
       </c>
@@ -16700,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="11">
         <v>43106.260415219906</v>
       </c>
@@ -16719,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="11">
         <v>43106.270831828704</v>
       </c>
@@ -16738,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="11">
         <v>43106.281248437503</v>
       </c>
@@ -16757,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="11">
         <v>43106.291665046294</v>
       </c>
@@ -16776,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="11">
         <v>43106.302081655092</v>
       </c>
@@ -16795,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="11">
         <v>43106.312498263891</v>
       </c>
@@ -16814,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="11">
         <v>43106.322914872682</v>
       </c>
@@ -16833,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="11">
         <v>43106.333331481481</v>
       </c>
@@ -16852,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="11">
         <v>43106.343748090279</v>
       </c>
@@ -16871,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="11">
         <v>43106.354164699071</v>
       </c>
@@ -16890,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="11">
         <v>43106.364581307869</v>
       </c>
@@ -16909,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="11">
         <v>43106.374997916668</v>
       </c>
@@ -16928,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="11">
         <v>43106.385414525466</v>
       </c>
@@ -16947,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="11">
         <v>43106.395831134258</v>
       </c>
@@ -16966,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="11">
         <v>43106.406247743056</v>
       </c>
@@ -16985,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="11">
         <v>43106.416664351855</v>
       </c>
@@ -17004,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="11">
         <v>43106.427080960646</v>
       </c>
@@ -17023,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="11">
         <v>43106.437497569445</v>
       </c>
@@ -17042,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="11">
         <v>43106.447914178243</v>
       </c>
@@ -17061,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="11">
         <v>43106.458330787034</v>
       </c>
@@ -17080,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="11">
         <v>43106.468747395833</v>
       </c>
@@ -17099,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="11">
         <v>43106.479164004631</v>
       </c>
@@ -17118,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="11">
         <v>43106.489580613423</v>
       </c>
@@ -17137,7 +17139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="11">
         <v>43106.499997222221</v>
       </c>
@@ -17156,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="11">
         <v>43106.51041383102</v>
       </c>
@@ -17175,7 +17177,7 @@
         <v>0.48608156156890198</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="11">
         <v>43106.520830439818</v>
       </c>
@@ -17194,7 +17196,7 @@
         <v>0.96384613285209064</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="11">
         <v>43106.53124704861</v>
       </c>
@@ -17213,7 +17215,7 @@
         <v>1.4251190295735467</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="11">
         <v>43106.541663657408</v>
       </c>
@@ -17232,7 +17234,7 @@
         <v>1.8620077445813574</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="11">
         <v>43106.552080266207</v>
       </c>
@@ -17251,7 +17253,7 @@
         <v>2.2670369908333039</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="11">
         <v>43106.562496874998</v>
       </c>
@@ -17270,7 +17272,7 @@
         <v>2.6332766056306935</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" s="11">
         <v>43106.572913483797</v>
       </c>
@@ -17289,7 +17291,7 @@
         <v>2.954460127623538</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" s="11">
         <v>43106.583330092595</v>
       </c>
@@ -17308,7 +17310,7 @@
         <v>3.2250920177016442</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" s="11">
         <v>43106.593746701386</v>
       </c>
@@ -17327,7 +17329,7 @@
         <v>3.4405416891924401</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" s="11">
         <v>43106.604163310185</v>
       </c>
@@ -17346,7 +17348,7 @@
         <v>3.5971227384827844</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="11">
         <v>43106.614579918984</v>
       </c>
@@ -17365,7 +17367,7 @@
         <v>3.6921560204068511</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" s="11">
         <v>43106.624996527775</v>
       </c>
@@ -17384,7 +17386,7 @@
         <v>3.7240154891627153</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" s="11">
         <v>43106.635413136573</v>
       </c>
@@ -17403,7 +17405,7 @@
         <v>3.6921560204068515</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" s="11">
         <v>43106.645829745372</v>
       </c>
@@ -17422,7 +17424,7 @@
         <v>3.5971227384827849</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="11">
         <v>43106.656246354163</v>
       </c>
@@ -17441,7 +17443,7 @@
         <v>3.4405416891924405</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="11">
         <v>43106.666662962962</v>
       </c>
@@ -17460,7 +17462,7 @@
         <v>3.2250920177016447</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" s="11">
         <v>43106.67707957176</v>
       </c>
@@ -17479,7 +17481,7 @@
         <v>2.9544601276235389</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" s="11">
         <v>43106.687496180559</v>
       </c>
@@ -17498,7 +17500,7 @@
         <v>2.633276605630694</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="11">
         <v>43106.69791278935</v>
       </c>
@@ -17517,7 +17519,7 @@
         <v>2.2670369908333052</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="11">
         <v>43106.708329398149</v>
       </c>
@@ -17536,7 +17538,7 @@
         <v>1.862007744581359</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" s="11">
         <v>43106.718746006947</v>
       </c>
@@ -17555,7 +17557,7 @@
         <v>1.4251190295735472</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="11">
         <v>43106.729162615738</v>
       </c>
@@ -17574,7 +17576,7 @@
         <v>0.96384613285209164</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="11">
         <v>43106.739579224537</v>
       </c>
@@ -17593,7 +17595,7 @@
         <v>0.48608156156890353</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" s="11">
         <v>43106.749995833336</v>
       </c>
@@ -17612,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" s="11">
         <v>43106.760412442127</v>
       </c>
@@ -17631,7 +17633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="11">
         <v>43106.770829050925</v>
       </c>
@@ -17650,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" s="11">
         <v>43106.781245659724</v>
       </c>
@@ -17669,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" s="11">
         <v>43106.791662268515</v>
       </c>
@@ -17688,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" s="11">
         <v>43106.802078877314</v>
       </c>
@@ -17707,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="11">
         <v>43106.812495486112</v>
       </c>
@@ -17726,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="11">
         <v>43106.822912094911</v>
       </c>
@@ -17745,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="11">
         <v>43106.833328703702</v>
       </c>
@@ -17764,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="11">
         <v>43106.843745312501</v>
       </c>
@@ -17783,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="11">
         <v>43106.854161921299</v>
       </c>
@@ -17802,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" s="11">
         <v>43106.864578530091</v>
       </c>
@@ -17821,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="11">
         <v>43106.874995138889</v>
       </c>
@@ -17840,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" s="11">
         <v>43106.885411747688</v>
       </c>
@@ -17859,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="11">
         <v>43106.895828356479</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" s="11">
         <v>43106.906244965277</v>
       </c>
@@ -17897,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="11">
         <v>43106.916661574076</v>
       </c>
@@ -17916,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" s="11">
         <v>43106.927078182867</v>
       </c>
@@ -17935,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" s="11">
         <v>43106.937494791666</v>
       </c>
@@ -17954,7 +17956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" s="11">
         <v>43106.947911400464</v>
       </c>
@@ -17973,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" s="11">
         <v>43106.958328009256</v>
       </c>
@@ -17992,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" s="11">
         <v>43106.968744618054</v>
       </c>
@@ -18011,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="11">
         <v>43106.979161226853</v>
       </c>
@@ -18030,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" s="11">
         <v>43106.989577835651</v>
       </c>
@@ -18049,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" s="11">
         <v>43107</v>
       </c>
@@ -18068,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" s="11">
         <v>43107.010416666664</v>
       </c>
@@ -18087,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" s="11">
         <v>43107.02083321759</v>
       </c>
@@ -18106,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" s="11">
         <v>43107.031249826388</v>
       </c>
@@ -18125,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" s="11">
         <v>43107.041666435187</v>
       </c>
@@ -18144,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" s="11">
         <v>43107.052083043978</v>
       </c>
@@ -18163,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" s="11">
         <v>43107.062499652777</v>
       </c>
@@ -18182,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" s="11">
         <v>43107.072916261575</v>
       </c>
@@ -18201,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" s="11">
         <v>43107.083332870374</v>
       </c>
@@ -18220,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" s="11">
         <v>43107.093749479165</v>
       </c>
@@ -18239,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" s="11">
         <v>43107.104166087964</v>
       </c>
@@ -18258,7 +18260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" s="11">
         <v>43107.114582696762</v>
       </c>
@@ -18277,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" s="11">
         <v>43107.124999305554</v>
       </c>
@@ -18296,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" s="11">
         <v>43107.135415914352</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" s="11">
         <v>43107.145832523151</v>
       </c>
@@ -18334,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" s="11">
         <v>43107.156249131942</v>
       </c>
@@ -18353,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" s="11">
         <v>43107.16666574074</v>
       </c>
@@ -18372,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" s="11">
         <v>43107.177082349539</v>
       </c>
@@ -18391,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" s="11">
         <v>43107.18749895833</v>
       </c>
@@ -18410,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" s="11">
         <v>43107.197915567129</v>
       </c>
@@ -18429,7 +18431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" s="11">
         <v>43107.208332175927</v>
       </c>
@@ -18448,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" s="11">
         <v>43107.218748784719</v>
       </c>
@@ -18467,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" s="11">
         <v>43107.229165393517</v>
       </c>
@@ -18486,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" s="11">
         <v>43107.239582002316</v>
       </c>
@@ -18505,7 +18507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" s="11">
         <v>43107.249998611114</v>
       </c>
@@ -18524,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" s="11">
         <v>43107.260415219906</v>
       </c>
@@ -18543,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" s="11">
         <v>43107.270831828704</v>
       </c>
@@ -18562,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" s="11">
         <v>43107.281248437503</v>
       </c>
@@ -18581,7 +18583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" s="11">
         <v>43107.291665046294</v>
       </c>
@@ -18600,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" s="11">
         <v>43107.302081655092</v>
       </c>
@@ -18619,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" s="11">
         <v>43107.312498263891</v>
       </c>
@@ -18638,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" s="11">
         <v>43107.322914872682</v>
       </c>
@@ -18657,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" s="11">
         <v>43107.333331481481</v>
       </c>
@@ -18676,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" s="11">
         <v>43107.343748090279</v>
       </c>
@@ -18695,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" s="11">
         <v>43107.354164699071</v>
       </c>
@@ -18714,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" s="11">
         <v>43107.364581307869</v>
       </c>
@@ -18733,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" s="11">
         <v>43107.374997916668</v>
       </c>
@@ -18752,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615" s="11">
         <v>43107.385414525466</v>
       </c>
@@ -18771,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" s="11">
         <v>43107.395831134258</v>
       </c>
@@ -18790,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617" s="11">
         <v>43107.406247743056</v>
       </c>
@@ -18809,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618" s="11">
         <v>43107.416664351855</v>
       </c>
@@ -18828,7 +18830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" s="11">
         <v>43107.427080960646</v>
       </c>
@@ -18847,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" s="11">
         <v>43107.437497569445</v>
       </c>
@@ -18866,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" s="11">
         <v>43107.447914178243</v>
       </c>
@@ -18885,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" s="11">
         <v>43107.458330787034</v>
       </c>
@@ -18904,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" s="11">
         <v>43107.468747395833</v>
       </c>
@@ -18923,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" s="11">
         <v>43107.479164004631</v>
       </c>
@@ -18942,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" s="11">
         <v>43107.489580613423</v>
       </c>
@@ -18961,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" s="11">
         <v>43107.499997222221</v>
       </c>
@@ -18980,7 +18982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" s="11">
         <v>43107.51041383102</v>
       </c>
@@ -18999,7 +19001,7 @@
         <v>0.48608156156890198</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" s="11">
         <v>43107.520830439818</v>
       </c>
@@ -19018,7 +19020,7 @@
         <v>0.96384613285209064</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" s="11">
         <v>43107.53124704861</v>
       </c>
@@ -19037,7 +19039,7 @@
         <v>1.4251190295735467</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" s="11">
         <v>43107.541663657408</v>
       </c>
@@ -19056,7 +19058,7 @@
         <v>1.8620077445813574</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" s="11">
         <v>43107.552080266207</v>
       </c>
@@ -19075,7 +19077,7 @@
         <v>2.2670369908333039</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A632" s="11">
         <v>43107.562496874998</v>
       </c>
@@ -19094,7 +19096,7 @@
         <v>2.6332766056306935</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633" s="11">
         <v>43107.572913483797</v>
       </c>
@@ -19113,7 +19115,7 @@
         <v>2.954460127623538</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A634" s="11">
         <v>43107.583330092595</v>
       </c>
@@ -19132,7 +19134,7 @@
         <v>3.2250920177016442</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635" s="11">
         <v>43107.593746701386</v>
       </c>
@@ -19151,7 +19153,7 @@
         <v>3.4405416891924401</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" s="11">
         <v>43107.604163310185</v>
       </c>
@@ -19170,7 +19172,7 @@
         <v>3.5971227384827844</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" s="11">
         <v>43107.614579918984</v>
       </c>
@@ -19189,7 +19191,7 @@
         <v>3.6921560204068511</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" s="11">
         <v>43107.624996527775</v>
       </c>
@@ -19208,7 +19210,7 @@
         <v>3.7240154891627153</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" s="11">
         <v>43107.635413136573</v>
       </c>
@@ -19227,7 +19229,7 @@
         <v>3.6921560204068515</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640" s="11">
         <v>43107.645829745372</v>
       </c>
@@ -19246,7 +19248,7 @@
         <v>3.5971227384827849</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" s="11">
         <v>43107.656246354163</v>
       </c>
@@ -19265,7 +19267,7 @@
         <v>3.4405416891924405</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A642" s="11">
         <v>43107.666662962962</v>
       </c>
@@ -19284,7 +19286,7 @@
         <v>3.2250920177016447</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A643" s="11">
         <v>43107.67707957176</v>
       </c>
@@ -19303,7 +19305,7 @@
         <v>2.9544601276235389</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" s="11">
         <v>43107.687496180559</v>
       </c>
@@ -19322,7 +19324,7 @@
         <v>2.633276605630694</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A645" s="11">
         <v>43107.69791278935</v>
       </c>
@@ -19341,7 +19343,7 @@
         <v>2.2670369908333052</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A646" s="11">
         <v>43107.708329398149</v>
       </c>
@@ -19360,7 +19362,7 @@
         <v>1.862007744581359</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A647" s="11">
         <v>43107.718746006947</v>
       </c>
@@ -19379,7 +19381,7 @@
         <v>1.4251190295735472</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648" s="11">
         <v>43107.729162615738</v>
       </c>
@@ -19398,7 +19400,7 @@
         <v>0.96384613285209164</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A649" s="11">
         <v>43107.739579224537</v>
       </c>
@@ -19417,7 +19419,7 @@
         <v>0.48608156156890353</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650" s="11">
         <v>43107.749995833336</v>
       </c>
@@ -19436,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651" s="11">
         <v>43107.760412442127</v>
       </c>
@@ -19455,7 +19457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652" s="11">
         <v>43107.770829050925</v>
       </c>
@@ -19474,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653" s="11">
         <v>43107.781245659724</v>
       </c>
@@ -19493,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A654" s="11">
         <v>43107.791662268515</v>
       </c>
@@ -19512,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655" s="11">
         <v>43107.802078877314</v>
       </c>
@@ -19531,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656" s="11">
         <v>43107.812495486112</v>
       </c>
@@ -19550,7 +19552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" s="11">
         <v>43107.822912094911</v>
       </c>
@@ -19569,7 +19571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" s="11">
         <v>43107.833328703702</v>
       </c>
@@ -19588,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" s="11">
         <v>43107.843745312501</v>
       </c>
@@ -19607,7 +19609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" s="11">
         <v>43107.854161921299</v>
       </c>
@@ -19626,7 +19628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" s="11">
         <v>43107.864578530091</v>
       </c>
@@ -19645,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" s="11">
         <v>43107.874995138889</v>
       </c>
@@ -19664,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" s="11">
         <v>43107.885411747688</v>
       </c>
@@ -19683,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" s="11">
         <v>43107.895828356479</v>
       </c>
@@ -19702,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" s="11">
         <v>43107.906244965277</v>
       </c>
@@ -19721,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="11">
         <v>43107.916661574076</v>
       </c>
@@ -19740,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" s="11">
         <v>43107.927078182867</v>
       </c>
@@ -19759,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" s="11">
         <v>43107.937494791666</v>
       </c>
@@ -19778,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" s="11">
         <v>43107.947911400464</v>
       </c>
@@ -19797,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" s="11">
         <v>43107.958328009256</v>
       </c>
@@ -19816,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" s="11">
         <v>43107.968744618054</v>
       </c>
@@ -19835,7 +19837,7 @@
         <v>0.35739209420974899</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" s="11">
         <v>43107.979161226853</v>
       </c>
@@ -19854,7 +19856,7 @@
         <v>0.71028977547108729</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" s="11">
         <v>43107.989577835651</v>
       </c>
@@ -19873,700 +19875,700 @@
         <v>1.0542551506861495</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B674" s="7"/>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B675" s="7"/>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B676" s="7"/>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B677" s="7"/>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B678" s="7"/>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B679" s="7"/>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B680" s="7"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B681" s="7"/>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B682" s="7"/>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B683" s="7"/>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B684" s="7"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B685" s="7"/>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B686" s="7"/>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B687" s="7"/>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B688" s="7"/>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B689" s="7"/>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B690" s="7"/>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B691" s="7"/>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B692" s="7"/>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B693" s="7"/>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B694" s="7"/>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B695" s="7"/>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B696" s="7"/>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B697" s="7"/>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B698" s="7"/>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B699" s="7"/>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B700" s="7"/>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B701" s="7"/>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B702" s="7"/>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B703" s="7"/>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B704" s="7"/>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B705" s="7"/>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B706" s="7"/>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B707" s="7"/>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B708" s="7"/>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B709" s="7"/>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B710" s="7"/>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B711" s="7"/>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B712" s="7"/>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B713" s="7"/>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B714" s="7"/>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B715" s="7"/>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B716" s="7"/>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B717" s="7"/>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B718" s="7"/>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B719" s="7"/>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B720" s="7"/>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B721" s="7"/>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B722" s="7"/>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B723" s="7"/>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B724" s="7"/>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B725" s="7"/>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B726" s="7"/>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B727" s="7"/>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B728" s="7"/>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B729" s="7"/>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B730" s="7"/>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B731" s="7"/>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B732" s="7"/>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B733" s="7"/>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B734" s="7"/>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B735" s="7"/>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B736" s="7"/>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B737" s="7"/>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B738" s="7"/>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B739" s="7"/>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B740" s="7"/>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B741" s="7"/>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B742" s="7"/>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B743" s="7"/>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B744" s="7"/>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B745" s="7"/>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B746" s="7"/>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B747" s="7"/>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B748" s="7"/>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B749" s="7"/>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B750" s="7"/>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B751" s="7"/>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B752" s="7"/>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B753" s="7"/>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B754" s="7"/>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B755" s="7"/>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B756" s="7"/>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B757" s="7"/>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B758" s="7"/>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B759" s="7"/>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B760" s="7"/>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B761" s="7"/>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B762" s="7"/>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B763" s="7"/>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B764" s="7"/>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B765" s="7"/>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B766" s="7"/>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B767" s="7"/>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B768" s="7"/>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B769" s="7"/>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B770" s="7"/>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B771" s="7"/>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B772" s="7"/>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B773" s="7"/>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B774" s="7"/>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B775" s="7"/>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B776" s="7"/>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B777" s="7"/>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B778" s="7"/>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B779" s="7"/>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B780" s="7"/>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B781" s="7"/>
     </row>
-    <row r="782" spans="2:2">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B782" s="7"/>
     </row>
-    <row r="783" spans="2:2">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B783" s="7"/>
     </row>
-    <row r="784" spans="2:2">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B784" s="7"/>
     </row>
-    <row r="785" spans="2:2">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B785" s="7"/>
     </row>
-    <row r="786" spans="2:2">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B786" s="7"/>
     </row>
-    <row r="787" spans="2:2">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B787" s="7"/>
     </row>
-    <row r="788" spans="2:2">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B788" s="7"/>
     </row>
-    <row r="789" spans="2:2">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B789" s="7"/>
     </row>
-    <row r="790" spans="2:2">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B790" s="7"/>
     </row>
-    <row r="791" spans="2:2">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B791" s="7"/>
     </row>
-    <row r="792" spans="2:2">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B792" s="7"/>
     </row>
-    <row r="793" spans="2:2">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B793" s="7"/>
     </row>
-    <row r="794" spans="2:2">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B794" s="7"/>
     </row>
-    <row r="795" spans="2:2">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B795" s="7"/>
     </row>
-    <row r="796" spans="2:2">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B796" s="7"/>
     </row>
-    <row r="797" spans="2:2">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B797" s="7"/>
     </row>
-    <row r="798" spans="2:2">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B798" s="7"/>
     </row>
-    <row r="799" spans="2:2">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B799" s="7"/>
     </row>
-    <row r="800" spans="2:2">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B800" s="7"/>
     </row>
-    <row r="801" spans="2:2">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B801" s="7"/>
     </row>
-    <row r="802" spans="2:2">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B802" s="7"/>
     </row>
-    <row r="803" spans="2:2">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B803" s="7"/>
     </row>
-    <row r="804" spans="2:2">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B804" s="7"/>
     </row>
-    <row r="805" spans="2:2">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B805" s="7"/>
     </row>
-    <row r="806" spans="2:2">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B806" s="7"/>
     </row>
-    <row r="807" spans="2:2">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B807" s="7"/>
     </row>
-    <row r="808" spans="2:2">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B808" s="7"/>
     </row>
-    <row r="809" spans="2:2">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B809" s="7"/>
     </row>
-    <row r="810" spans="2:2">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B810" s="7"/>
     </row>
-    <row r="811" spans="2:2">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B811" s="7"/>
     </row>
-    <row r="812" spans="2:2">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B812" s="7"/>
     </row>
-    <row r="813" spans="2:2">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B813" s="7"/>
     </row>
-    <row r="814" spans="2:2">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B814" s="7"/>
     </row>
-    <row r="815" spans="2:2">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B815" s="7"/>
     </row>
-    <row r="816" spans="2:2">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B816" s="7"/>
     </row>
-    <row r="817" spans="2:2">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B817" s="7"/>
     </row>
-    <row r="818" spans="2:2">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B818" s="7"/>
     </row>
-    <row r="819" spans="2:2">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B819" s="7"/>
     </row>
-    <row r="820" spans="2:2">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B820" s="7"/>
     </row>
-    <row r="821" spans="2:2">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B821" s="7"/>
     </row>
-    <row r="822" spans="2:2">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B822" s="7"/>
     </row>
-    <row r="823" spans="2:2">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B823" s="7"/>
     </row>
-    <row r="824" spans="2:2">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B824" s="7"/>
     </row>
-    <row r="825" spans="2:2">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B825" s="7"/>
     </row>
-    <row r="826" spans="2:2">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B826" s="7"/>
     </row>
-    <row r="827" spans="2:2">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B827" s="7"/>
     </row>
-    <row r="828" spans="2:2">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B828" s="7"/>
     </row>
-    <row r="829" spans="2:2">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B829" s="7"/>
     </row>
-    <row r="830" spans="2:2">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B830" s="7"/>
     </row>
-    <row r="831" spans="2:2">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B831" s="7"/>
     </row>
-    <row r="832" spans="2:2">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B832" s="7"/>
     </row>
-    <row r="833" spans="2:2">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B833" s="7"/>
     </row>
-    <row r="834" spans="2:2">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B834" s="7"/>
     </row>
-    <row r="835" spans="2:2">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B835" s="7"/>
     </row>
-    <row r="836" spans="2:2">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="2:2">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B837" s="7"/>
     </row>
-    <row r="838" spans="2:2">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B838" s="7"/>
     </row>
-    <row r="839" spans="2:2">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B839" s="7"/>
     </row>
-    <row r="840" spans="2:2">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B840" s="7"/>
     </row>
-    <row r="841" spans="2:2">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B841" s="7"/>
     </row>
-    <row r="842" spans="2:2">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B842" s="7"/>
     </row>
-    <row r="843" spans="2:2">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B843" s="7"/>
     </row>
-    <row r="844" spans="2:2">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="2:2">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B845" s="7"/>
     </row>
-    <row r="846" spans="2:2">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B846" s="7"/>
     </row>
-    <row r="847" spans="2:2">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B847" s="7"/>
     </row>
-    <row r="848" spans="2:2">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B848" s="7"/>
     </row>
-    <row r="849" spans="2:2">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B849" s="7"/>
     </row>
-    <row r="850" spans="2:2">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B850" s="7"/>
     </row>
-    <row r="851" spans="2:2">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B851" s="7"/>
     </row>
-    <row r="852" spans="2:2">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B852" s="7"/>
     </row>
-    <row r="853" spans="2:2">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B853" s="7"/>
     </row>
-    <row r="854" spans="2:2">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B854" s="7"/>
     </row>
-    <row r="855" spans="2:2">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B855" s="7"/>
     </row>
-    <row r="856" spans="2:2">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B856" s="7"/>
     </row>
-    <row r="857" spans="2:2">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B857" s="7"/>
     </row>
-    <row r="858" spans="2:2">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B858" s="7"/>
     </row>
-    <row r="859" spans="2:2">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B859" s="7"/>
     </row>
-    <row r="860" spans="2:2">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B860" s="7"/>
     </row>
-    <row r="861" spans="2:2">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B861" s="7"/>
     </row>
-    <row r="862" spans="2:2">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B862" s="7"/>
     </row>
-    <row r="863" spans="2:2">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B863" s="7"/>
     </row>
-    <row r="864" spans="2:2">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B864" s="7"/>
     </row>
-    <row r="865" spans="2:2">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B865" s="7"/>
     </row>
-    <row r="866" spans="2:2">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B866" s="7"/>
     </row>
-    <row r="867" spans="2:2">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B867" s="7"/>
     </row>
-    <row r="868" spans="2:2">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B868" s="7"/>
     </row>
-    <row r="869" spans="2:2">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B869" s="7"/>
     </row>
-    <row r="870" spans="2:2">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B870" s="7"/>
     </row>
-    <row r="871" spans="2:2">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B871" s="7"/>
     </row>
-    <row r="872" spans="2:2">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B872" s="7"/>
     </row>
-    <row r="873" spans="2:2">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B873" s="7"/>
     </row>
-    <row r="874" spans="2:2">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B874" s="7"/>
     </row>
-    <row r="875" spans="2:2">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B875" s="7"/>
     </row>
-    <row r="876" spans="2:2">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B876" s="7"/>
     </row>
-    <row r="877" spans="2:2">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B877" s="7"/>
     </row>
-    <row r="878" spans="2:2">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B878" s="7"/>
     </row>
-    <row r="879" spans="2:2">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B879" s="7"/>
     </row>
-    <row r="880" spans="2:2">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B880" s="7"/>
     </row>
-    <row r="881" spans="2:2">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B881" s="7"/>
     </row>
-    <row r="882" spans="2:2">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B882" s="7"/>
     </row>
-    <row r="883" spans="2:2">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B883" s="7"/>
     </row>
-    <row r="884" spans="2:2">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B884" s="7"/>
     </row>
-    <row r="885" spans="2:2">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B885" s="7"/>
     </row>
-    <row r="886" spans="2:2">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B886" s="7"/>
     </row>
-    <row r="887" spans="2:2">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B887" s="7"/>
     </row>
-    <row r="888" spans="2:2">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B888" s="7"/>
     </row>
-    <row r="889" spans="2:2">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B889" s="7"/>
     </row>
-    <row r="890" spans="2:2">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B890" s="7"/>
     </row>
-    <row r="891" spans="2:2">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B891" s="7"/>
     </row>
-    <row r="892" spans="2:2">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B892" s="7"/>
     </row>
-    <row r="893" spans="2:2">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B893" s="7"/>
     </row>
-    <row r="894" spans="2:2">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B894" s="7"/>
     </row>
-    <row r="895" spans="2:2">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B895" s="7"/>
     </row>
-    <row r="896" spans="2:2">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B896" s="7"/>
     </row>
-    <row r="897" spans="2:2">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B897" s="7"/>
     </row>
-    <row r="898" spans="2:2">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B898" s="7"/>
     </row>
-    <row r="899" spans="2:2">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B899" s="7"/>
     </row>
-    <row r="900" spans="2:2">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B900" s="7"/>
     </row>
-    <row r="901" spans="2:2">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B901" s="7"/>
     </row>
-    <row r="902" spans="2:2">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B902" s="7"/>
     </row>
-    <row r="903" spans="2:2">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B903" s="7"/>
     </row>
-    <row r="904" spans="2:2">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B904" s="7"/>
     </row>
-    <row r="905" spans="2:2">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B905" s="7"/>
     </row>
   </sheetData>
@@ -20581,25 +20583,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4EF160-AB85-4EBC-9AE6-900C690F2B9D}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -20646,7 +20648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -20707,7 +20709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -20744,7 +20746,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -20784,7 +20786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -20825,7 +20827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -20862,7 +20864,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -20872,7 +20874,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -20909,7 +20911,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -20946,7 +20948,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -20955,7 +20957,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>0</v>
       </c>
@@ -20966,7 +20968,7 @@
       <c r="C14" s="7"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -20976,8 +20978,11 @@
       </c>
       <c r="C15" s="7"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>2.0833333333333301E-2</v>
       </c>
@@ -20988,7 +20993,7 @@
       <c r="C16" s="7"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>3.125E-2</v>
       </c>
@@ -20999,7 +21004,7 @@
       <c r="C17" s="7"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -21010,7 +21015,7 @@
       <c r="C18" s="7"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>5.2083333333333301E-2</v>
       </c>
@@ -21021,7 +21026,7 @@
       <c r="C19" s="7"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>6.25E-2</v>
       </c>
@@ -21032,7 +21037,7 @@
       <c r="C20" s="7"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>7.2916666666666699E-2</v>
       </c>
@@ -21042,7 +21047,7 @@
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -21052,7 +21057,7 @@
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>9.375E-2</v>
       </c>
@@ -21062,7 +21067,7 @@
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>0.104166666666667</v>
       </c>
@@ -21072,7 +21077,7 @@
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>0.114583333333333</v>
       </c>
@@ -21082,7 +21087,7 @@
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>0.125</v>
       </c>
@@ -21092,7 +21097,7 @@
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>0.13541666666666699</v>
       </c>
@@ -21102,7 +21107,7 @@
       </c>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>0.14583333333333301</v>
       </c>
@@ -21112,7 +21117,7 @@
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>0.15625</v>
       </c>
@@ -21122,7 +21127,7 @@
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -21132,7 +21137,7 @@
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>0.17708333333333301</v>
       </c>
@@ -21142,7 +21147,7 @@
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>0.1875</v>
       </c>
@@ -21152,7 +21157,7 @@
       </c>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>0.19791666666666699</v>
       </c>
@@ -21162,7 +21167,7 @@
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -21172,7 +21177,7 @@
       </c>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>0.21875</v>
       </c>
@@ -21182,7 +21187,7 @@
       </c>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>0.22916666666666699</v>
       </c>
@@ -21192,7 +21197,7 @@
       </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>0.23958333333333301</v>
       </c>
@@ -21202,7 +21207,7 @@
       </c>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>0.25</v>
       </c>
@@ -21212,7 +21217,7 @@
       </c>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>0.26041666666666702</v>
       </c>
@@ -21222,7 +21227,7 @@
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>0.27083333333333298</v>
       </c>
@@ -21232,7 +21237,7 @@
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>0.28125</v>
       </c>
@@ -21242,7 +21247,7 @@
       </c>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -21252,7 +21257,7 @@
       </c>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>0.30208333333333298</v>
       </c>
@@ -21262,7 +21267,7 @@
       </c>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>0.3125</v>
       </c>
@@ -21272,7 +21277,7 @@
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>0.32291666666666702</v>
       </c>
@@ -21282,7 +21287,7 @@
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -21292,7 +21297,7 @@
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>0.34375</v>
       </c>
@@ -21302,7 +21307,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>0.35416666666666702</v>
       </c>
@@ -21312,7 +21317,7 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>0.36458333333333298</v>
       </c>
@@ -21322,7 +21327,7 @@
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>0.375</v>
       </c>
@@ -21332,7 +21337,7 @@
       </c>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>0.38541666666666702</v>
       </c>
@@ -21342,7 +21347,7 @@
       </c>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>0.39583333333333298</v>
       </c>
@@ -21352,7 +21357,7 @@
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>0.40625</v>
       </c>
@@ -21362,7 +21367,7 @@
       </c>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -21372,7 +21377,7 @@
       </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>0.42708333333333298</v>
       </c>
@@ -21382,7 +21387,7 @@
       </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>0.4375</v>
       </c>
@@ -21392,7 +21397,7 @@
       </c>
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>0.44791666666666702</v>
       </c>
@@ -21402,7 +21407,7 @@
       </c>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -21412,7 +21417,7 @@
       </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>0.46875</v>
       </c>
@@ -21422,7 +21427,7 @@
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>0.47916666666666702</v>
       </c>
@@ -21432,7 +21437,7 @@
       </c>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>0.48958333333333298</v>
       </c>
@@ -21442,7 +21447,7 @@
       </c>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>0.5</v>
       </c>
@@ -21452,7 +21457,7 @@
       </c>
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>0.51041666666666696</v>
       </c>
@@ -21462,7 +21467,7 @@
       </c>
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>0.52083333333333304</v>
       </c>
@@ -21472,7 +21477,7 @@
       </c>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>0.53125</v>
       </c>
@@ -21482,7 +21487,7 @@
       </c>
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -21492,7 +21497,7 @@
       </c>
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>0.55208333333333304</v>
       </c>
@@ -21502,7 +21507,7 @@
       </c>
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>0.5625</v>
       </c>
@@ -21512,7 +21517,7 @@
       </c>
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>0.57291666666666696</v>
       </c>
@@ -21522,7 +21527,7 @@
       </c>
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -21532,7 +21537,7 @@
       </c>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>0.59375</v>
       </c>
@@ -21542,7 +21547,7 @@
       </c>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>0.60416666666666696</v>
       </c>
@@ -21552,7 +21557,7 @@
       </c>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>0.61458333333333304</v>
       </c>
@@ -21562,7 +21567,7 @@
       </c>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>0.625</v>
       </c>
@@ -21572,7 +21577,7 @@
       </c>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>0.63541666666666696</v>
       </c>
@@ -21582,7 +21587,7 @@
       </c>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>0.64583333333333304</v>
       </c>
@@ -21592,7 +21597,7 @@
       </c>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>0.65625</v>
       </c>
@@ -21602,7 +21607,7 @@
       </c>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -21612,7 +21617,7 @@
       </c>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>0.67708333333333304</v>
       </c>
@@ -21622,7 +21627,7 @@
       </c>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>0.6875</v>
       </c>
@@ -21632,7 +21637,7 @@
       </c>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>0.69791666666666696</v>
       </c>
@@ -21642,7 +21647,7 @@
       </c>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -21652,7 +21657,7 @@
       </c>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>0.71875</v>
       </c>
@@ -21662,7 +21667,7 @@
       </c>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>0.72916666666666696</v>
       </c>
@@ -21672,7 +21677,7 @@
       </c>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>0.73958333333333304</v>
       </c>
@@ -21682,7 +21687,7 @@
       </c>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>0.75</v>
       </c>
@@ -21692,7 +21697,7 @@
       </c>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>0.76041666666666696</v>
       </c>
@@ -21702,7 +21707,7 @@
       </c>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>0.77083333333333304</v>
       </c>
@@ -21712,7 +21717,7 @@
       </c>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>0.78125</v>
       </c>
@@ -21722,7 +21727,7 @@
       </c>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -21732,7 +21737,7 @@
       </c>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>0.80208333333333304</v>
       </c>
@@ -21742,7 +21747,7 @@
       </c>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>0.8125</v>
       </c>
@@ -21752,7 +21757,7 @@
       </c>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>0.82291666666666696</v>
       </c>
@@ -21762,7 +21767,7 @@
       </c>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -21772,7 +21777,7 @@
       </c>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>0.84375</v>
       </c>
@@ -21782,7 +21787,7 @@
       </c>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>0.85416666666666696</v>
       </c>
@@ -21792,7 +21797,7 @@
       </c>
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>0.86458333333333304</v>
       </c>
@@ -21802,7 +21807,7 @@
       </c>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>0.875</v>
       </c>
@@ -21812,7 +21817,7 @@
       </c>
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>0.88541666666666696</v>
       </c>
@@ -21822,7 +21827,7 @@
       </c>
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>0.89583333333333304</v>
       </c>
@@ -21832,7 +21837,7 @@
       </c>
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>0.90625</v>
       </c>
@@ -21842,7 +21847,7 @@
       </c>
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -21852,7 +21857,7 @@
       </c>
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>0.92708333333333304</v>
       </c>
@@ -21862,7 +21867,7 @@
       </c>
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>0.9375</v>
       </c>
@@ -21872,7 +21877,7 @@
       </c>
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>0.94791666666666696</v>
       </c>
@@ -21882,7 +21887,7 @@
       </c>
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -21892,7 +21897,7 @@
       </c>
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>0.96875</v>
       </c>
@@ -21902,7 +21907,7 @@
       </c>
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>0.97916666666666696</v>
       </c>
@@ -21912,7 +21917,7 @@
       </c>
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>0.98958333333333304</v>
       </c>
@@ -21935,25 +21940,25 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -22000,7 +22005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -22065,7 +22070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -22102,7 +22107,7 @@
         <v>2.0320987654320986</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -22142,7 +22147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -22183,7 +22188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -22220,7 +22225,7 @@
         <v>2.0320987654320986</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -22229,7 +22234,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -22267,7 +22272,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -22305,19 +22310,19 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="G14" t="s">
         <v>33</v>
@@ -22326,7 +22331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="G15" s="3">
         <f>(L2/K2*N2)/F2</f>
@@ -22337,7 +22342,7 @@
         <v>0.54921588254921583</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>35</v>
@@ -22346,7 +22351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -22365,7 +22370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -22386,13 +22391,13 @@
         <v>0.64075186297408515</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -22406,7 +22411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>0</v>
       </c>
@@ -22422,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -22438,7 +22443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>2.0833333333333301E-2</v>
       </c>
@@ -22454,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>3.125E-2</v>
       </c>
@@ -22470,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -22486,7 +22491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>5.2083333333333301E-2</v>
       </c>
@@ -22502,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>6.25E-2</v>
       </c>
@@ -22518,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>7.2916666666666699E-2</v>
       </c>
@@ -22534,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -22550,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>9.375E-2</v>
       </c>
@@ -22566,7 +22571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>0.104166666666667</v>
       </c>
@@ -22582,7 +22587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>0.114583333333333</v>
       </c>
@@ -22598,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>0.125</v>
       </c>
@@ -22614,7 +22619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>0.13541666666666699</v>
       </c>
@@ -22630,7 +22635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>0.14583333333333301</v>
       </c>
@@ -22646,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>0.15625</v>
       </c>
@@ -22662,7 +22667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>0.16666666666666699</v>
       </c>
@@ -22678,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>0.17708333333333301</v>
       </c>
@@ -22694,7 +22699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>0.1875</v>
       </c>
@@ -22710,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>0.19791666666666699</v>
       </c>
@@ -22726,7 +22731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>0.20833333333333301</v>
       </c>
@@ -22742,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>0.21875</v>
       </c>
@@ -22758,7 +22763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>0.22916666666666699</v>
       </c>
@@ -22774,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>0.23958333333333301</v>
       </c>
@@ -22790,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>0.25</v>
       </c>
@@ -22806,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>0.26041666666666702</v>
       </c>
@@ -22822,7 +22827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>0.27083333333333298</v>
       </c>
@@ -22838,7 +22843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>0.28125</v>
       </c>
@@ -22854,7 +22859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>0.29166666666666702</v>
       </c>
@@ -22870,7 +22875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>0.30208333333333298</v>
       </c>
@@ -22886,7 +22891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>0.3125</v>
       </c>
@@ -22902,7 +22907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>0.32291666666666702</v>
       </c>
@@ -22918,7 +22923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>0.33333333333333298</v>
       </c>
@@ -22934,7 +22939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>0.34375</v>
       </c>
@@ -22950,7 +22955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>0.35416666666666702</v>
       </c>
@@ -22966,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>0.36458333333333298</v>
       </c>
@@ -22982,7 +22987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>0.375</v>
       </c>
@@ -22998,7 +23003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>0.38541666666666702</v>
       </c>
@@ -23014,7 +23019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>0.39583333333333298</v>
       </c>
@@ -23030,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>0.40625</v>
       </c>
@@ -23046,7 +23051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>0.41666666666666702</v>
       </c>
@@ -23062,7 +23067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>0.42708333333333298</v>
       </c>
@@ -23078,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>0.4375</v>
       </c>
@@ -23094,7 +23099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>0.44791666666666702</v>
       </c>
@@ -23110,7 +23115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>0.45833333333333298</v>
       </c>
@@ -23126,7 +23131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>0.46875</v>
       </c>
@@ -23142,7 +23147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>0.47916666666666702</v>
       </c>
@@ -23158,7 +23163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>0.48958333333333298</v>
       </c>
@@ -23174,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>0.5</v>
       </c>
@@ -23190,7 +23195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>0.51041666666666696</v>
       </c>
@@ -23206,7 +23211,7 @@
         <v>0.48608156156890198</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>0.52083333333333304</v>
       </c>
@@ -23222,7 +23227,7 @@
         <v>0.96384613285209064</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>0.53125</v>
       </c>
@@ -23238,7 +23243,7 @@
         <v>1.4251190295735467</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>0.54166666666666696</v>
       </c>
@@ -23254,7 +23259,7 @@
         <v>1.8620077445813574</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>0.55208333333333304</v>
       </c>
@@ -23270,7 +23275,7 @@
         <v>2.2670369908333039</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>0.5625</v>
       </c>
@@ -23286,7 +23291,7 @@
         <v>2.6332766056306935</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>0.57291666666666696</v>
       </c>
@@ -23302,7 +23307,7 @@
         <v>2.954460127623538</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>0.58333333333333304</v>
       </c>
@@ -23318,7 +23323,7 @@
         <v>3.2250920177016442</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>0.59375</v>
       </c>
@@ -23334,7 +23339,7 @@
         <v>3.4405416891924401</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>0.60416666666666696</v>
       </c>
@@ -23350,7 +23355,7 @@
         <v>3.5971227384827844</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>0.61458333333333304</v>
       </c>
@@ -23366,7 +23371,7 @@
         <v>3.6921560204068511</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>0.625</v>
       </c>
@@ -23382,7 +23387,7 @@
         <v>3.7240154891627153</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>0.63541666666666696</v>
       </c>
@@ -23398,7 +23403,7 @@
         <v>3.6921560204068515</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>0.64583333333333304</v>
       </c>
@@ -23414,7 +23419,7 @@
         <v>3.5971227384827849</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>0.65625</v>
       </c>
@@ -23430,7 +23435,7 @@
         <v>3.4405416891924405</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>0.66666666666666696</v>
       </c>
@@ -23446,7 +23451,7 @@
         <v>3.2250920177016447</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>0.67708333333333304</v>
       </c>
@@ -23462,7 +23467,7 @@
         <v>2.9544601276235389</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>0.6875</v>
       </c>
@@ -23478,7 +23483,7 @@
         <v>2.633276605630694</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>0.69791666666666696</v>
       </c>
@@ -23494,7 +23499,7 @@
         <v>2.2670369908333052</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>0.70833333333333304</v>
       </c>
@@ -23510,7 +23515,7 @@
         <v>1.862007744581359</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>0.71875</v>
       </c>
@@ -23526,7 +23531,7 @@
         <v>1.4251190295735472</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>0.72916666666666696</v>
       </c>
@@ -23542,7 +23547,7 @@
         <v>0.96384613285209164</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>0.73958333333333304</v>
       </c>
@@ -23558,7 +23563,7 @@
         <v>0.48608156156890353</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>0.75</v>
       </c>
@@ -23574,7 +23579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>0.76041666666666696</v>
       </c>
@@ -23590,7 +23595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>0.77083333333333304</v>
       </c>
@@ -23606,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>0.78125</v>
       </c>
@@ -23622,7 +23627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -23638,7 +23643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>0.80208333333333304</v>
       </c>
@@ -23654,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>0.8125</v>
       </c>
@@ -23670,7 +23675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>0.82291666666666696</v>
       </c>
@@ -23686,7 +23691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -23702,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>0.84375</v>
       </c>
@@ -23718,7 +23723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>0.85416666666666696</v>
       </c>
@@ -23734,7 +23739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>0.86458333333333304</v>
       </c>
@@ -23750,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>0.875</v>
       </c>
@@ -23766,7 +23771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>0.88541666666666696</v>
       </c>
@@ -23782,7 +23787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>0.89583333333333304</v>
       </c>
@@ -23798,7 +23803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>0.90625</v>
       </c>
@@ -23814,7 +23819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -23830,7 +23835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>0.92708333333333304</v>
       </c>
@@ -23846,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>0.9375</v>
       </c>
@@ -23862,7 +23867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>0.94791666666666696</v>
       </c>
@@ -23878,7 +23883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>0.95833333333333304</v>
       </c>
@@ -23894,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>0.96875</v>
       </c>
@@ -23910,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>0.97916666666666696</v>
       </c>
@@ -23926,7 +23931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>0.98958333333333304</v>
       </c>
@@ -23942,251 +23947,251 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="C118" s="7"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="C179" s="3"/>
     </row>
@@ -24199,16 +24204,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C41F1D-362D-9D40-9C19-D9939CCD42B4}">
   <dimension ref="D7:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>39</v>
       </c>
@@ -24219,7 +24224,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>41</v>
       </c>
@@ -24231,7 +24236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>43</v>
       </c>
@@ -24243,7 +24248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>44</v>
       </c>
@@ -24254,7 +24259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>45</v>
       </c>
@@ -24267,7 +24272,7 @@
         <v>0.49064398541919813</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>46</v>
       </c>
@@ -24276,7 +24281,7 @@
         <v>41.919999999999995</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>47</v>
       </c>
@@ -24287,7 +24292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>49</v>
       </c>
@@ -24296,7 +24301,7 @@
         <v>11.329729729729728</v>
       </c>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
         <v>50</v>
       </c>

--- a/data/EV Calculation.xlsx
+++ b/data/EV Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1948" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B038739-3595-CA4D-960B-9BF0033647A1}"/>
+  <xr:revisionPtr revIDLastSave="1949" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD8D2BA-8627-9945-91AF-82E200927339}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="52">
   <si>
     <t>Datetime</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>1.9</t>
-  </si>
-  <si>
-    <t>70/405*82,3</t>
   </si>
 </sst>
 </file>
@@ -20978,8 +20975,9 @@
       </c>
       <c r="C15" s="7"/>
       <c r="F15" s="5"/>
-      <c r="I15" t="s">
-        <v>52</v>
+      <c r="I15">
+        <f>70/405*82.3</f>
+        <v>14.224691358024691</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
